--- a/PricerAndQutation/OptionPricer_v2_20180117.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="602" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="200">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,8 +725,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>al1805</t>
+  </si>
+  <si>
+    <t>中金公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中天科技 </t>
   </si>
 </sst>
 </file>
@@ -735,23 +740,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="###,###,##0"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="###,###,##0.0"/>
+    <numFmt numFmtId="164" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="###,###,##0"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="###,###,##0.0"/>
   </numFmts>
   <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -759,21 +764,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -781,7 +786,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -789,7 +794,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -810,7 +815,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -819,7 +824,7 @@
       <b/>
       <sz val="10"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -828,7 +833,7 @@
       <b/>
       <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -836,7 +841,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -845,14 +850,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -867,7 +872,7 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -876,14 +881,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -891,13 +896,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -905,7 +910,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -913,7 +918,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -921,7 +926,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1308,8 +1313,8 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1317,9 +1322,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1352,9 +1357,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1383,25 +1388,25 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="24" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,17 +1508,17 @@
     <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1521,11 +1526,11 @@
     <xf numFmtId="2" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1533,11 +1538,11 @@
     <xf numFmtId="2" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1545,16 +1550,26 @@
     <xf numFmtId="2" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1565,29 +1580,32 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1595,25 +1613,12 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1638,7 +1643,15 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>3790</v>
+        <v>14765</v>
+        <stp/>
+        <stp>al1805</stp>
+        <stp>LastPrice</stp>
+        <tr r="P16" s="1"/>
+        <tr r="P15" s="1"/>
+      </tp>
+      <tp>
+        <v>3836</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -1647,13 +1660,13 @@
         <tr r="H8" s="7"/>
       </tp>
       <tp>
-        <v>15230</v>
+        <v>15205</v>
         <stp/>
         <stp>CF805</stp>
         <stp>LastPrice</stp>
+        <tr r="P14" s="1"/>
+        <tr r="P12" s="1"/>
         <tr r="P13" s="1"/>
-        <tr r="P12" s="1"/>
-        <tr r="P14" s="1"/>
         <tr r="P11" s="1"/>
       </tp>
     </main>
@@ -1955,25 +1968,25 @@
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="6" width="12.625" style="6" customWidth="1"/>
-    <col min="7" max="13" width="12.625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="12.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="6" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="6" customWidth="1"/>
+    <col min="7" max="13" width="12.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="12.6640625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="6" customWidth="1"/>
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="169" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-    </row>
-    <row r="2" spans="2:18" ht="12" thickTop="1"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+    </row>
+    <row r="2" spans="2:18" ht="12.6" thickTop="1"/>
     <row r="5" spans="2:18">
       <c r="B5" s="114" t="s">
         <v>2</v>
@@ -3471,32 +3484,32 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="6" customWidth="1"/>
     <col min="4" max="6" width="9" style="6"/>
-    <col min="7" max="8" width="13.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="13.44140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="6" customWidth="1"/>
     <col min="12" max="12" width="9" style="6"/>
     <col min="13" max="13" width="9" style="6" customWidth="1"/>
     <col min="14" max="17" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="6" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="6" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="169" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-    </row>
-    <row r="2" spans="1:21" ht="12" thickTop="1"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+    </row>
+    <row r="2" spans="1:21" ht="12.6" thickTop="1"/>
     <row r="3" spans="1:21">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -3517,7 +3530,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
     </row>
-    <row r="4" spans="1:21" ht="12" thickBot="1">
+    <row r="4" spans="1:21" ht="12.6" thickBot="1">
       <c r="A4" s="54"/>
       <c r="B4" s="17" t="s">
         <v>30</v>
@@ -3578,7 +3591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" thickTop="1">
+    <row r="5" spans="1:21" ht="12.6" thickTop="1">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3600,7 +3613,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="7" spans="1:21" ht="12" thickBot="1">
+    <row r="7" spans="1:21" ht="12.6" thickBot="1">
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
@@ -3660,7 +3673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" thickTop="1">
+    <row r="8" spans="1:21" ht="12.6" thickTop="1">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -3719,91 +3732,91 @@
   <dimension ref="B1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="B22:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="3" width="9" style="6"/>
     <col min="4" max="4" width="9" style="6" customWidth="1"/>
     <col min="5" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="12.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="9" style="6"/>
-    <col min="10" max="10" width="10.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="183" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1">
+      <c r="B1" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="183"/>
-    </row>
-    <row r="2" spans="2:20" ht="12" thickTop="1"/>
-    <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="184" t="s">
+      <c r="C1" s="181"/>
+    </row>
+    <row r="2" spans="2:20" ht="12.6" thickTop="1"/>
+    <row r="3" spans="2:20" ht="14.4" thickBot="1">
+      <c r="B3" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="G3" s="185" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="G3" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="L3" s="184" t="s">
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="L3" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-      <c r="Q3" s="185" t="s">
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="Q3" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="179" t="s">
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+    </row>
+    <row r="4" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B4" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="G4" s="179" t="s">
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="G4" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="L4" s="179" t="s">
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="L4" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="Q4" s="179" t="s">
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="Q4" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
-    </row>
-    <row r="5" spans="2:20" ht="14.25" thickTop="1">
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+    </row>
+    <row r="5" spans="2:20" ht="15" thickTop="1">
       <c r="B5" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="182" t="s">
+      <c r="G5" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="182"/>
+      <c r="H5" s="176"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -3812,368 +3825,368 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="182" t="s">
+      <c r="Q5" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="182"/>
+      <c r="R5" s="176"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="169" t="s">
+    <row r="6" spans="2:20" ht="14.4">
+      <c r="B6" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="170" t="s">
+      <c r="C6" s="173"/>
+      <c r="D6" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="171"/>
-      <c r="G6" s="182" t="s">
+      <c r="E6" s="175"/>
+      <c r="G6" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="182"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
-      <c r="L6" s="169" t="s">
+      <c r="H6" s="176"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="175"/>
+      <c r="L6" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="169"/>
-      <c r="N6" s="170" t="s">
+      <c r="M6" s="173"/>
+      <c r="N6" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="171"/>
-      <c r="Q6" s="182" t="s">
+      <c r="O6" s="175"/>
+      <c r="Q6" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="182"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="171"/>
-    </row>
-    <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="169" t="s">
+      <c r="R6" s="176"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="175"/>
+    </row>
+    <row r="7" spans="2:20" ht="14.4">
+      <c r="B7" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="170" t="s">
+      <c r="C7" s="173"/>
+      <c r="D7" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="G7" s="182" t="s">
+      <c r="E7" s="175"/>
+      <c r="G7" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="182"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
-      <c r="L7" s="169" t="s">
+      <c r="H7" s="176"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="175"/>
+      <c r="L7" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="170" t="s">
+      <c r="M7" s="173"/>
+      <c r="N7" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="171"/>
-      <c r="Q7" s="182" t="s">
+      <c r="O7" s="175"/>
+      <c r="Q7" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="182"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="171"/>
-    </row>
-    <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="169" t="s">
+      <c r="R7" s="176"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="175"/>
+    </row>
+    <row r="8" spans="2:20" ht="14.4">
+      <c r="B8" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="170">
+      <c r="C8" s="173"/>
+      <c r="D8" s="174">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="171"/>
-      <c r="G8" s="182" t="s">
+      <c r="E8" s="175"/>
+      <c r="G8" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="182"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
-      <c r="L8" s="169" t="s">
+      <c r="H8" s="176"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
+      <c r="L8" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="169"/>
-      <c r="N8" s="170">
+      <c r="M8" s="173"/>
+      <c r="N8" s="174">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="171"/>
-      <c r="Q8" s="182" t="s">
+      <c r="O8" s="175"/>
+      <c r="Q8" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="182"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="171"/>
-    </row>
-    <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="169" t="s">
+      <c r="R8" s="176"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="175"/>
+    </row>
+    <row r="9" spans="2:20" ht="14.4">
+      <c r="B9" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="170" t="s">
+      <c r="C9" s="173"/>
+      <c r="D9" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="171"/>
-      <c r="G9" s="182" t="s">
+      <c r="E9" s="175"/>
+      <c r="G9" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="182"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
-      <c r="L9" s="169" t="s">
+      <c r="H9" s="176"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
+      <c r="L9" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="169"/>
-      <c r="N9" s="170" t="s">
+      <c r="M9" s="173"/>
+      <c r="N9" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="171"/>
-      <c r="Q9" s="182" t="s">
+      <c r="O9" s="175"/>
+      <c r="Q9" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="182"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="171"/>
-    </row>
-    <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="169" t="s">
+      <c r="R9" s="176"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="175"/>
+    </row>
+    <row r="10" spans="2:20" ht="14.4">
+      <c r="B10" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="170">
+      <c r="C10" s="173"/>
+      <c r="D10" s="174">
         <v>43084</v>
       </c>
-      <c r="E10" s="171"/>
+      <c r="E10" s="175"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171"/>
-      <c r="L10" s="169" t="s">
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="L10" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="169"/>
-      <c r="N10" s="170">
+      <c r="M10" s="173"/>
+      <c r="N10" s="174">
         <v>43084</v>
       </c>
-      <c r="O10" s="171"/>
+      <c r="O10" s="175"/>
       <c r="Q10" s="52" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="52"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="171"/>
-    </row>
-    <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="169" t="s">
+      <c r="S10" s="174"/>
+      <c r="T10" s="175"/>
+    </row>
+    <row r="11" spans="2:20" ht="14.4">
+      <c r="B11" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170">
+      <c r="C11" s="173"/>
+      <c r="D11" s="174">
         <v>3935</v>
       </c>
-      <c r="E11" s="171"/>
-      <c r="G11" s="182" t="s">
+      <c r="E11" s="175"/>
+      <c r="G11" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="182"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="171"/>
-      <c r="L11" s="169" t="s">
+      <c r="H11" s="176"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
+      <c r="L11" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="169"/>
-      <c r="N11" s="170">
+      <c r="M11" s="173"/>
+      <c r="N11" s="174">
         <v>3935</v>
       </c>
-      <c r="O11" s="171"/>
-      <c r="Q11" s="182" t="s">
+      <c r="O11" s="175"/>
+      <c r="Q11" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="182"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="171"/>
-    </row>
-    <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="169" t="s">
+      <c r="R11" s="176"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="175"/>
+    </row>
+    <row r="12" spans="2:20" ht="14.4">
+      <c r="B12" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="170">
+      <c r="C12" s="173"/>
+      <c r="D12" s="174">
         <v>3800</v>
       </c>
-      <c r="E12" s="171"/>
-      <c r="G12" s="182" t="s">
+      <c r="E12" s="175"/>
+      <c r="G12" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="182"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171"/>
-      <c r="L12" s="169" t="s">
+      <c r="H12" s="176"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="L12" s="173" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="169"/>
-      <c r="N12" s="170">
+      <c r="M12" s="173"/>
+      <c r="N12" s="174">
         <v>3800</v>
       </c>
-      <c r="O12" s="171"/>
-      <c r="Q12" s="182" t="s">
+      <c r="O12" s="175"/>
+      <c r="Q12" s="176" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="182"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="171"/>
-    </row>
-    <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="169" t="s">
+      <c r="R12" s="176"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="175"/>
+    </row>
+    <row r="13" spans="2:20" ht="14.4">
+      <c r="B13" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170">
+      <c r="C13" s="173"/>
+      <c r="D13" s="174">
         <v>61</v>
       </c>
-      <c r="E13" s="171"/>
-      <c r="G13" s="182" t="s">
+      <c r="E13" s="175"/>
+      <c r="G13" s="176" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="182"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171"/>
-      <c r="L13" s="169" t="s">
+      <c r="H13" s="176"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
+      <c r="L13" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="169"/>
-      <c r="N13" s="170">
+      <c r="M13" s="173"/>
+      <c r="N13" s="174">
         <v>3800</v>
       </c>
-      <c r="O13" s="171"/>
-      <c r="Q13" s="182" t="s">
+      <c r="O13" s="175"/>
+      <c r="Q13" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="182"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="171"/>
-    </row>
-    <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="169" t="s">
+      <c r="R13" s="176"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="175"/>
+    </row>
+    <row r="14" spans="2:20" ht="14.4">
+      <c r="B14" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="170" t="s">
+      <c r="C14" s="173"/>
+      <c r="D14" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="G14" s="182" t="s">
+      <c r="E14" s="175"/>
+      <c r="G14" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="182"/>
+      <c r="H14" s="176"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="169" t="s">
+      <c r="L14" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="169"/>
-      <c r="N14" s="170">
+      <c r="M14" s="173"/>
+      <c r="N14" s="174">
         <v>61</v>
       </c>
-      <c r="O14" s="171"/>
-      <c r="Q14" s="182" t="s">
+      <c r="O14" s="175"/>
+      <c r="Q14" s="176" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="182"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="171"/>
-    </row>
-    <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="169" t="s">
+      <c r="R14" s="176"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="175"/>
+    </row>
+    <row r="15" spans="2:20" ht="14.4">
+      <c r="B15" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170">
+      <c r="C15" s="173"/>
+      <c r="D15" s="174">
         <v>5000</v>
       </c>
-      <c r="E15" s="171"/>
-      <c r="G15" s="182" t="s">
+      <c r="E15" s="175"/>
+      <c r="G15" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="182"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="171"/>
-      <c r="L15" s="169" t="s">
+      <c r="H15" s="176"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
+      <c r="L15" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="169"/>
-      <c r="N15" s="170" t="s">
+      <c r="M15" s="173"/>
+      <c r="N15" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="171"/>
-      <c r="Q15" s="182" t="s">
+      <c r="O15" s="175"/>
+      <c r="Q15" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="182"/>
+      <c r="R15" s="176"/>
       <c r="S15" s="50"/>
       <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="174" t="s">
+    <row r="16" spans="2:20" ht="15" thickBot="1">
+      <c r="B16" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175" t="s">
+      <c r="C16" s="179"/>
+      <c r="D16" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="176"/>
-      <c r="G16" s="178" t="s">
+      <c r="E16" s="172"/>
+      <c r="G16" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="178"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
-      <c r="L16" s="169" t="s">
+      <c r="H16" s="170"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
+      <c r="L16" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="169"/>
-      <c r="N16" s="170">
+      <c r="M16" s="173"/>
+      <c r="N16" s="174">
         <v>5000</v>
       </c>
-      <c r="O16" s="171"/>
-      <c r="Q16" s="182" t="s">
+      <c r="O16" s="175"/>
+      <c r="Q16" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="182"/>
-      <c r="S16" s="170"/>
-      <c r="T16" s="171"/>
-    </row>
-    <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="174" t="s">
+      <c r="R16" s="176"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="175"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="L17" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="174"/>
-      <c r="N17" s="175" t="s">
+      <c r="M17" s="179"/>
+      <c r="N17" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="176"/>
-      <c r="Q17" s="178" t="s">
+      <c r="O17" s="172"/>
+      <c r="Q17" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="178"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="176"/>
-    </row>
-    <row r="18" spans="2:20" ht="12" thickTop="1"/>
-    <row r="19" spans="2:20" ht="13.5">
+      <c r="R17" s="170"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="172"/>
+    </row>
+    <row r="18" spans="2:20" ht="12.6" thickTop="1"/>
+    <row r="19" spans="2:20" ht="14.4">
       <c r="B19" s="28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="12" thickBot="1">
+    <row r="21" spans="2:20" ht="12.6" thickBot="1">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4183,222 +4196,324 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="179" t="s">
+    <row r="22" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B22" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="G22" s="179" t="s">
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="G22" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-    </row>
-    <row r="23" spans="2:20" ht="14.25" thickTop="1">
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+    </row>
+    <row r="23" spans="2:20" ht="15" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="181"/>
+      <c r="D23" s="185">
+        <v>43117</v>
+      </c>
+      <c r="E23" s="186"/>
       <c r="G23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="181"/>
-    </row>
-    <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="169" t="s">
+      <c r="I23" s="185"/>
+      <c r="J23" s="186"/>
+    </row>
+    <row r="24" spans="2:20" ht="14.4">
+      <c r="B24" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="171"/>
-      <c r="G24" s="169" t="s">
+      <c r="C24" s="173"/>
+      <c r="D24" s="174" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="175"/>
+      <c r="G24" s="173" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171"/>
-    </row>
-    <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="169" t="s">
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
+    </row>
+    <row r="25" spans="2:20" ht="14.4">
+      <c r="B25" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="171"/>
-      <c r="G25" s="169" t="s">
+      <c r="C25" s="173"/>
+      <c r="D25" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="175"/>
+      <c r="G25" s="173" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="171"/>
-    </row>
-    <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="169" t="s">
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="175"/>
+    </row>
+    <row r="26" spans="2:20" ht="14.4">
+      <c r="B26" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="169"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="173"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="182">
+        <f>D33*D31</f>
+        <v>400000</v>
+      </c>
+      <c r="E26" s="183"/>
       <c r="G26" s="111" t="s">
         <v>182</v>
       </c>
       <c r="H26" s="111"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="171"/>
-    </row>
-    <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="169" t="s">
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
+    </row>
+    <row r="27" spans="2:20" ht="14.4">
+      <c r="B27" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
-      <c r="G27" s="169" t="s">
+      <c r="C27" s="173"/>
+      <c r="D27" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="175"/>
+      <c r="G27" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
-    </row>
-    <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="169" t="s">
+      <c r="H27" s="173"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
+    </row>
+    <row r="28" spans="2:20" ht="14.4">
+      <c r="B28" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="171"/>
-      <c r="G28" s="169" t="s">
+      <c r="C28" s="173"/>
+      <c r="D28" s="184">
+        <v>43200</v>
+      </c>
+      <c r="E28" s="175"/>
+      <c r="G28" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="169"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="171"/>
-    </row>
-    <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="169" t="s">
+      <c r="H28" s="173"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="175"/>
+    </row>
+    <row r="29" spans="2:20" ht="14.4">
+      <c r="B29" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="171"/>
-      <c r="G29" s="169" t="s">
+      <c r="C29" s="173"/>
+      <c r="D29" s="174">
+        <v>14800</v>
+      </c>
+      <c r="E29" s="175"/>
+      <c r="G29" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
-    </row>
-    <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="169" t="s">
+      <c r="H29" s="173"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
+    </row>
+    <row r="30" spans="2:20" ht="14.4">
+      <c r="B30" s="173" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="171"/>
-      <c r="G30" s="169" t="s">
+      <c r="C30" s="173"/>
+      <c r="D30" s="174">
+        <v>14500</v>
+      </c>
+      <c r="E30" s="175"/>
+      <c r="G30" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="169"/>
+      <c r="H30" s="173"/>
       <c r="I30" s="112"/>
       <c r="J30" s="113"/>
     </row>
-    <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="169" t="s">
+    <row r="31" spans="2:20" ht="14.4">
+      <c r="B31" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="169"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="171"/>
-      <c r="G31" s="169" t="s">
+      <c r="C31" s="173"/>
+      <c r="D31" s="174">
+        <v>200</v>
+      </c>
+      <c r="E31" s="175"/>
+      <c r="G31" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
-    </row>
-    <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="169" t="s">
+      <c r="H31" s="173"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="175"/>
+    </row>
+    <row r="32" spans="2:20" ht="14.4">
+      <c r="B32" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="171"/>
-      <c r="G32" s="169" t="s">
+      <c r="C32" s="173"/>
+      <c r="D32" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="175"/>
+      <c r="G32" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
-    </row>
-    <row r="33" spans="2:10" ht="13.5">
-      <c r="B33" s="169" t="s">
+      <c r="H32" s="173"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="175"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.4">
+      <c r="B33" s="173" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173"/>
-      <c r="G33" s="169" t="s">
+      <c r="C33" s="173"/>
+      <c r="D33" s="182">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="183"/>
+      <c r="G33" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="171"/>
-    </row>
-    <row r="34" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B34" s="174" t="s">
+      <c r="H33" s="173"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" thickBot="1">
+      <c r="B34" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="176"/>
-      <c r="G34" s="169" t="s">
+      <c r="C34" s="179"/>
+      <c r="D34" s="171" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="172"/>
+      <c r="G34" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="169"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="173"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="G35" s="174" t="s">
+      <c r="H34" s="173"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.6" thickTop="1" thickBot="1">
+      <c r="G35" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="174"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="176"/>
-    </row>
-    <row r="36" spans="2:10" ht="12" thickTop="1"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="172"/>
+    </row>
+    <row r="36" spans="2:10" ht="12.6" thickTop="1"/>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -4423,106 +4538,29 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4535,39 +4573,39 @@
   <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="8.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="9" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="6" customWidth="1"/>
     <col min="12" max="12" width="9" style="6" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" style="6" customWidth="1"/>
     <col min="14" max="14" width="10" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="6" customWidth="1"/>
     <col min="16" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="6.5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="6" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="6.21875" style="6" customWidth="1"/>
     <col min="19" max="19" width="7" style="6" customWidth="1"/>
     <col min="20" max="21" width="9" style="6"/>
-    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
+    <col min="22" max="22" width="13.77734375" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="183"/>
-    </row>
-    <row r="2" spans="1:22" ht="12" thickTop="1">
+      <c r="C1" s="181"/>
+    </row>
+    <row r="2" spans="1:22" ht="12.6" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4583,7 +4621,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" thickBot="1">
+    <row r="4" spans="1:22" ht="12.6" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -4591,8 +4629,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12" thickTop="1"/>
-    <row r="6" spans="1:22" ht="12" thickBot="1">
+    <row r="5" spans="1:22" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:22" ht="12.6" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4615,7 +4653,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="13.2" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>170</v>
       </c>
@@ -4678,7 +4716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12" thickTop="1">
+    <row r="8" spans="1:22" ht="12.6" thickTop="1">
       <c r="A8" s="53"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -4690,12 +4728,12 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:E15" ca="1" si="0">TODAY()</f>
-        <v>43116</v>
+        <f t="shared" ref="E8:E16" ca="1" si="0">TODAY()</f>
+        <v>43117</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -4715,22 +4753,22 @@
       </c>
       <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-125.02911686184689</v>
+        <v>-149.50247563085418</v>
       </c>
       <c r="M8" s="25">
         <v>80</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N9" si="3">M8/10000*I8*P8</f>
-        <v>2.492054794520548</v>
+        <v>2.5223013698630137</v>
       </c>
       <c r="O8" s="24">
         <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>127.52117165636743</v>
+        <v>152.02477700071719</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3790</v>
+        <v>3836</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -4744,15 +4782,15 @@
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>3.3646747138883229E-2</v>
+        <v>3.9631068039811576E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.5041039227762667</v>
+        <v>-0.55973603185748289</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-4.3272897907696688</v>
+        <v>-4.3293922741355573</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -4768,11 +4806,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43148</v>
+        <v>43149</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -4842,11 +4880,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" ca="1" si="7">E10+H10</f>
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="G10" s="10">
         <v>95</v>
@@ -4916,11 +4954,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="G11" s="10">
         <v>14800</v>
@@ -4940,7 +4978,7 @@
       </c>
       <c r="L11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>41.19817776177706</v>
+        <v>45.537235547863474</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="13">
@@ -4949,11 +4987,11 @@
       </c>
       <c r="O11" s="13">
         <f t="shared" si="9"/>
-        <v>41.19817776177706</v>
+        <v>45.537235547863474</v>
       </c>
       <c r="P11" s="11">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>15230</v>
+        <v>15205</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>85</v>
@@ -4967,15 +5005,15 @@
       </c>
       <c r="T11" s="14">
         <f t="shared" si="11"/>
-        <v>2.7050674827168129E-3</v>
+        <v>2.9948855999910209E-3</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.16663169046751136</v>
+        <v>-0.18061620846765436</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>10.870117636747864</v>
+        <v>11.425245512963329</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -4991,11 +5029,11 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F11:F12" ca="1" si="12">E12+H12</f>
-        <v>43146</v>
+        <f t="shared" ref="F12" ca="1" si="12">E12+H12</f>
+        <v>43147</v>
       </c>
       <c r="G12" s="10">
         <v>14800</v>
@@ -5004,7 +5042,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="12">
-        <f t="shared" ref="I11:I12" si="13">H12/365</f>
+        <f t="shared" ref="I12" si="13">H12/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="J12" s="12">
@@ -5015,42 +5053,42 @@
       </c>
       <c r="L12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-90.692502785285342</v>
+        <v>-96.810334245733884</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="13">
-        <f t="shared" ref="N11:N12" si="14">M12/10000*I12*P12</f>
+        <f t="shared" ref="N12" si="14">M12/10000*I12*P12</f>
         <v>0</v>
       </c>
       <c r="O12" s="13">
-        <f t="shared" ref="O11:O12" si="15">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
-        <v>90.692502785285342</v>
+        <f t="shared" ref="O12" si="15">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
+        <v>96.810334245733884</v>
       </c>
       <c r="P12" s="11">
         <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
-        <v>15230</v>
+        <v>15205</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>85</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" ref="R11:R12" si="16">IF(S12="中金买入",1,-1)</f>
+        <f t="shared" ref="R12" si="16">IF(S12="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="S12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T12" s="14">
-        <f t="shared" ref="T11:T12" si="17">O12/P12</f>
-        <v>5.9548590141356101E-3</v>
+        <f t="shared" ref="T12" si="17">O12/P12</f>
+        <v>6.3670065271775001E-3</v>
       </c>
       <c r="U12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.23854033845509548</v>
+        <v>0.25094595057453262</v>
       </c>
       <c r="V12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-13.505551449204177</v>
+        <v>-13.857327812969515</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -5066,11 +5104,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13:F14" ca="1" si="18">E13+H13</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="G13" s="10">
         <v>15600</v>
@@ -5090,7 +5128,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>55.936262023923064</v>
+        <v>50.717197448189836</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13">
@@ -5099,11 +5137,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" ref="O13:O14" si="21">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>55.936262023923064</v>
+        <v>50.717197448189836</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>15230</v>
+        <v>15205</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>39</v>
@@ -5117,15 +5155,15 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13:T14" si="23">O13/P13</f>
-        <v>3.672768353507752E-3</v>
+        <v>3.335560503004922E-3</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.21664876967406599</v>
+        <v>0.20098742763821065</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>12.776427440691805</v>
+        <v>12.201402086808685</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -5141,11 +5179,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="G14" s="10">
         <v>15600</v>
@@ -5165,7 +5203,7 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-111.90296918094919</v>
+        <v>-104.85989571928712</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="13">
@@ -5174,11 +5212,11 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" si="21"/>
-        <v>111.90296918094919</v>
+        <v>104.85989571928712</v>
       </c>
       <c r="P14" s="11">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>15230</v>
+        <v>15205</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>39</v>
@@ -5192,15 +5230,15 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" si="23"/>
-        <v>7.3475357308568079E-3</v>
+        <v>6.8964087944286172E-3</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.28841167818427493</v>
+        <v>-0.27508115556429402</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-14.884003398148025</v>
+        <v>-14.523662023506859</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -5211,36 +5249,36 @@
       <c r="C15" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="188" t="s">
+      <c r="D15" s="168" t="s">
         <v>197</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15" ca="1" si="24">E15+H15</f>
-        <v>43206</v>
+        <v>43201</v>
       </c>
       <c r="G15" s="10">
-        <v>100</v>
+        <v>14500</v>
       </c>
       <c r="H15" s="10">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I15" s="12">
         <f t="shared" ref="I15" si="25">H15/365</f>
-        <v>0.24657534246575341</v>
+        <v>0.23013698630136986</v>
       </c>
       <c r="J15" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="9">
-        <v>0.17499999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-3.642492885191281</v>
+        <v>-218.97989880496698</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="13">
@@ -5249,13 +5287,14 @@
       </c>
       <c r="O15" s="13">
         <f t="shared" ref="O15" si="27">IF(L15&lt;=0,ABS(L15)+N15,L15-N15)</f>
-        <v>3.642492885191281</v>
+        <v>218.97989880496698</v>
       </c>
       <c r="P15" s="11">
-        <v>100</v>
+        <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
+        <v>14765</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="R15" s="10">
         <f t="shared" ref="R15" si="28">IF(S15="中金买入",1,-1)</f>
@@ -5266,40 +5305,91 @@
       </c>
       <c r="T15" s="14">
         <f t="shared" ref="T15" si="29">O15/P15</f>
-        <v>3.6424928851912813E-2</v>
+        <v>1.4831012448694005E-2</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.53361322017302371</v>
+        <v>0.36397417957232392</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.19712479580478259</v>
+        <v>-26.508615102818112</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="53"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
+      <c r="B16" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="168" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43117</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16" ca="1" si="30">E16+H16</f>
+        <v>43201</v>
+      </c>
+      <c r="G16" s="10">
+        <v>14200</v>
+      </c>
+      <c r="H16" s="10">
+        <v>84</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" ref="I16" si="31">H16/365</f>
+        <v>0.23013698630136986</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="L16" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
+        <v>-123.0489903530779</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13">
+        <f t="shared" ref="N16" si="32">M16/10000*I16*P16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" ref="O16" si="33">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
+        <v>123.0489903530779</v>
+      </c>
+      <c r="P16" s="11">
+        <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
+        <v>14765</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" ref="R16" si="34">IF(S16="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" ref="T16" si="35">O16/P16</f>
+        <v>8.3338293500222083E-3</v>
+      </c>
+      <c r="U16" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
+        <v>0.23881867195996165</v>
+      </c>
+      <c r="V16" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
+        <v>-21.884783293990495</v>
+      </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="53"/>
@@ -5336,7 +5426,9 @@
       <c r="H18" s="118"/>
       <c r="I18" s="120"/>
       <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
+      <c r="K18" s="121">
+        <v>0.1</v>
+      </c>
       <c r="L18" s="117"/>
       <c r="M18" s="122"/>
       <c r="N18" s="117"/>
@@ -5365,7 +5457,10 @@
       <c r="M19" s="122"/>
       <c r="N19" s="117"/>
       <c r="O19" s="117"/>
-      <c r="P19" s="123"/>
+      <c r="P19" s="123">
+        <f>P15*2000</f>
+        <v>29530000</v>
+      </c>
       <c r="Q19" s="118"/>
       <c r="R19" s="118"/>
       <c r="S19" s="118"/>
@@ -5389,11 +5484,17 @@
       <c r="M20" s="122"/>
       <c r="N20" s="117"/>
       <c r="O20" s="117"/>
-      <c r="P20" s="123"/>
+      <c r="P20" s="123">
+        <f>P19*0.09</f>
+        <v>2657700</v>
+      </c>
       <c r="Q20" s="118"/>
       <c r="R20" s="118"/>
       <c r="S20" s="118"/>
-      <c r="T20" s="124"/>
+      <c r="T20" s="124">
+        <f>200*U16</f>
+        <v>47.76373439199233</v>
+      </c>
       <c r="U20" s="117"/>
       <c r="V20" s="117"/>
     </row>
@@ -5532,7 +5633,9 @@
       <c r="L26" s="117"/>
       <c r="M26" s="122"/>
       <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
+      <c r="O26" s="117">
+        <v>2000</v>
+      </c>
       <c r="P26" s="123"/>
       <c r="Q26" s="118"/>
       <c r="R26" s="118"/>
@@ -5556,7 +5659,10 @@
       <c r="L27" s="117"/>
       <c r="M27" s="122"/>
       <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
+      <c r="O27" s="117">
+        <f>O26/5</f>
+        <v>400</v>
+      </c>
       <c r="P27" s="123"/>
       <c r="Q27" s="118"/>
       <c r="R27" s="118"/>
@@ -6471,39 +6577,39 @@
       <selection activeCell="G11" sqref="A11:XFD78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="6" customWidth="1"/>
-    <col min="9" max="10" width="8.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="6" customWidth="1"/>
-    <col min="16" max="16" width="15.25" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="6" customWidth="1"/>
+    <col min="9" max="10" width="8.109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="6"/>
     <col min="19" max="19" width="7" style="6" customWidth="1"/>
     <col min="20" max="20" width="9" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.77734375" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="183"/>
-    </row>
-    <row r="2" spans="1:22" ht="12" thickTop="1">
+      <c r="C1" s="181"/>
+    </row>
+    <row r="2" spans="1:22" ht="12.6" thickTop="1">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -6519,7 +6625,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12" thickBot="1">
+    <row r="4" spans="1:22" ht="12.6" thickBot="1">
       <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
@@ -6527,8 +6633,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12" thickTop="1"/>
-    <row r="6" spans="1:22" ht="12" thickBot="1">
+    <row r="5" spans="1:22" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:22" ht="12.6" thickBot="1">
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -6551,7 +6657,7 @@
       <c r="U6" s="39"/>
       <c r="V6" s="39"/>
     </row>
-    <row r="7" spans="1:22" ht="15" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>29</v>
@@ -6615,7 +6721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.25" thickTop="1">
+    <row r="8" spans="1:22" ht="15" thickTop="1">
       <c r="A8" s="61"/>
       <c r="B8" s="62" t="s">
         <v>173</v>
@@ -6632,11 +6738,11 @@
       </c>
       <c r="F8" s="65">
         <f ca="1">TODAY()</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="G8" s="65">
         <f ca="1">F8+I8</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="H8" s="63">
         <v>100</v>
@@ -6683,7 +6789,7 @@
         <v>-0.11406523569462124</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="13.5">
+    <row r="9" spans="1:22" ht="14.4">
       <c r="A9" s="61"/>
       <c r="B9" s="70" t="s">
         <v>174</v>
@@ -6700,11 +6806,11 @@
       </c>
       <c r="F9" s="73">
         <f ca="1">F8</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="G9" s="73">
         <f ca="1">G8</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="H9" s="71">
         <v>100</v>
@@ -6753,7 +6859,7 @@
         <v>0.11407976820886745</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.5">
+    <row r="10" spans="1:22" ht="14.4">
       <c r="A10" s="61"/>
       <c r="B10" s="78" t="s">
         <v>175</v>
@@ -6768,11 +6874,11 @@
       </c>
       <c r="F10" s="81">
         <f ca="1">F9</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="G10" s="81">
         <f ca="1">G9</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="H10" s="79" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -6824,7 +6930,7 @@
         <v>1.4532514246212713E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="13.5">
+    <row r="11" spans="1:22" ht="14.4">
       <c r="A11" s="84"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -6848,7 +6954,7 @@
       <c r="U11" s="70"/>
       <c r="V11" s="70"/>
     </row>
-    <row r="12" spans="1:22" ht="13.5">
+    <row r="12" spans="1:22" ht="14.4">
       <c r="A12" s="84"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -6872,7 +6978,7 @@
       <c r="U12" s="70"/>
       <c r="V12" s="70"/>
     </row>
-    <row r="13" spans="1:22" ht="13.5">
+    <row r="13" spans="1:22" ht="14.4">
       <c r="A13" s="84"/>
       <c r="B13" s="78"/>
       <c r="C13" s="79"/>
@@ -6896,7 +7002,7 @@
       <c r="U13" s="83"/>
       <c r="V13" s="83"/>
     </row>
-    <row r="14" spans="1:22" ht="13.5">
+    <row r="14" spans="1:22" ht="14.4">
       <c r="A14" s="84"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -6920,7 +7026,7 @@
       <c r="U14" s="70"/>
       <c r="V14" s="70"/>
     </row>
-    <row r="15" spans="1:22" ht="13.5">
+    <row r="15" spans="1:22" ht="14.4">
       <c r="A15" s="84"/>
       <c r="B15" s="70"/>
       <c r="C15" s="71"/>
@@ -6944,7 +7050,7 @@
       <c r="U15" s="70"/>
       <c r="V15" s="70"/>
     </row>
-    <row r="16" spans="1:22" ht="13.5">
+    <row r="16" spans="1:22" ht="14.4">
       <c r="A16" s="84"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -6968,7 +7074,7 @@
       <c r="U16" s="83"/>
       <c r="V16" s="83"/>
     </row>
-    <row r="17" spans="1:22" ht="13.5">
+    <row r="17" spans="1:22" ht="14.4">
       <c r="A17" s="84"/>
       <c r="B17" s="70"/>
       <c r="C17" s="71"/>
@@ -6992,7 +7098,7 @@
       <c r="U17" s="70"/>
       <c r="V17" s="70"/>
     </row>
-    <row r="18" spans="1:22" ht="13.5">
+    <row r="18" spans="1:22" ht="14.4">
       <c r="A18" s="84"/>
       <c r="B18" s="70"/>
       <c r="C18" s="71"/>
@@ -7016,7 +7122,7 @@
       <c r="U18" s="70"/>
       <c r="V18" s="70"/>
     </row>
-    <row r="19" spans="1:22" ht="14.25" thickBot="1">
+    <row r="19" spans="1:22" ht="15" thickBot="1">
       <c r="A19" s="84"/>
       <c r="B19" s="126"/>
       <c r="C19" s="127"/>
@@ -7040,7 +7146,7 @@
       <c r="U19" s="132"/>
       <c r="V19" s="132"/>
     </row>
-    <row r="20" spans="1:22" s="144" customFormat="1" ht="13.5">
+    <row r="20" spans="1:22" s="144" customFormat="1" ht="14.4">
       <c r="A20" s="134"/>
       <c r="B20" s="135"/>
       <c r="C20" s="136"/>
@@ -7064,7 +7170,7 @@
       <c r="U20" s="135"/>
       <c r="V20" s="135"/>
     </row>
-    <row r="21" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="21" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A21" s="145"/>
       <c r="B21" s="70"/>
       <c r="C21" s="71"/>
@@ -7088,7 +7194,7 @@
       <c r="U21" s="70"/>
       <c r="V21" s="70"/>
     </row>
-    <row r="22" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="22" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A22" s="145"/>
       <c r="B22" s="78"/>
       <c r="C22" s="79"/>
@@ -7112,7 +7218,7 @@
       <c r="U22" s="83"/>
       <c r="V22" s="83"/>
     </row>
-    <row r="23" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="23" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A23" s="145"/>
       <c r="B23" s="70"/>
       <c r="C23" s="71"/>
@@ -7136,7 +7242,7 @@
       <c r="U23" s="70"/>
       <c r="V23" s="70"/>
     </row>
-    <row r="24" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="24" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A24" s="145"/>
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
@@ -7160,7 +7266,7 @@
       <c r="U24" s="70"/>
       <c r="V24" s="70"/>
     </row>
-    <row r="25" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="25" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A25" s="145"/>
       <c r="B25" s="78"/>
       <c r="C25" s="79"/>
@@ -7184,7 +7290,7 @@
       <c r="U25" s="83"/>
       <c r="V25" s="83"/>
     </row>
-    <row r="26" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="26" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A26" s="145"/>
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
@@ -7208,7 +7314,7 @@
       <c r="U26" s="70"/>
       <c r="V26" s="70"/>
     </row>
-    <row r="27" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="27" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A27" s="145"/>
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
@@ -7232,7 +7338,7 @@
       <c r="U27" s="70"/>
       <c r="V27" s="70"/>
     </row>
-    <row r="28" spans="1:22" s="133" customFormat="1" ht="14.25" thickBot="1">
+    <row r="28" spans="1:22" s="133" customFormat="1" ht="15" thickBot="1">
       <c r="A28" s="145"/>
       <c r="B28" s="126"/>
       <c r="C28" s="127"/>
@@ -7256,7 +7362,7 @@
       <c r="U28" s="132"/>
       <c r="V28" s="132"/>
     </row>
-    <row r="29" spans="1:22" s="156" customFormat="1" ht="13.5">
+    <row r="29" spans="1:22" s="156" customFormat="1" ht="14.4">
       <c r="A29" s="146"/>
       <c r="B29" s="147"/>
       <c r="C29" s="148"/>
@@ -7280,7 +7386,7 @@
       <c r="U29" s="147"/>
       <c r="V29" s="147"/>
     </row>
-    <row r="30" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="30" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A30" s="157"/>
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
@@ -7304,7 +7410,7 @@
       <c r="U30" s="70"/>
       <c r="V30" s="70"/>
     </row>
-    <row r="31" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="31" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A31" s="157"/>
       <c r="B31" s="78"/>
       <c r="C31" s="79"/>
@@ -7328,7 +7434,7 @@
       <c r="U31" s="83"/>
       <c r="V31" s="83"/>
     </row>
-    <row r="32" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="32" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A32" s="157"/>
       <c r="B32" s="70"/>
       <c r="C32" s="71"/>
@@ -7352,7 +7458,7 @@
       <c r="U32" s="70"/>
       <c r="V32" s="70"/>
     </row>
-    <row r="33" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="33" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A33" s="157"/>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
@@ -7376,7 +7482,7 @@
       <c r="U33" s="70"/>
       <c r="V33" s="70"/>
     </row>
-    <row r="34" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="34" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A34" s="157"/>
       <c r="B34" s="78"/>
       <c r="C34" s="79"/>
@@ -7400,7 +7506,7 @@
       <c r="U34" s="83"/>
       <c r="V34" s="83"/>
     </row>
-    <row r="35" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="35" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A35" s="157"/>
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
@@ -7424,7 +7530,7 @@
       <c r="U35" s="70"/>
       <c r="V35" s="70"/>
     </row>
-    <row r="36" spans="1:22" s="133" customFormat="1" ht="13.5">
+    <row r="36" spans="1:22" s="133" customFormat="1" ht="14.4">
       <c r="A36" s="157"/>
       <c r="B36" s="70"/>
       <c r="C36" s="71"/>
@@ -7448,7 +7554,7 @@
       <c r="U36" s="70"/>
       <c r="V36" s="70"/>
     </row>
-    <row r="37" spans="1:22" s="166" customFormat="1" ht="14.25" thickBot="1">
+    <row r="37" spans="1:22" s="166" customFormat="1" ht="15" thickBot="1">
       <c r="A37" s="158"/>
       <c r="B37" s="159"/>
       <c r="C37" s="160"/>
@@ -7566,34 +7672,34 @@
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
     <col min="5" max="10" width="9" style="6"/>
     <col min="11" max="11" width="8" style="6" customWidth="1"/>
     <col min="12" max="14" width="9" style="6"/>
-    <col min="15" max="15" width="8.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="6" customWidth="1"/>
     <col min="17" max="17" width="9" style="6"/>
-    <col min="18" max="18" width="7.25" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.21875" style="6" customWidth="1"/>
     <col min="19" max="19" width="9" style="6"/>
-    <col min="20" max="20" width="10.125" style="6" customWidth="1"/>
-    <col min="21" max="22" width="6.5" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="6" customWidth="1"/>
+    <col min="21" max="22" width="6.44140625" style="6" customWidth="1"/>
     <col min="23" max="24" width="9" style="6"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
+    <col min="25" max="25" width="13.77734375" style="6" customWidth="1"/>
     <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="183"/>
-    </row>
-    <row r="2" spans="1:25" ht="12" thickTop="1">
+      <c r="C1" s="181"/>
+    </row>
+    <row r="2" spans="1:25" ht="12.6" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7609,7 +7715,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12" thickBot="1">
+    <row r="4" spans="1:25" ht="12.6" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -7617,8 +7723,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12" thickTop="1"/>
-    <row r="6" spans="1:25" ht="12" thickBot="1">
+    <row r="5" spans="1:25" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:25" ht="12.6" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -7644,7 +7750,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:25" ht="13.2" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -7716,7 +7822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="12" thickTop="1">
+    <row r="8" spans="1:25" ht="12.6" thickTop="1">
       <c r="A8" s="53"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -7739,7 +7845,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3790</v>
+        <v>3836</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -7756,11 +7862,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -7777,30 +7883,30 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-51.655325408528334</v>
+        <v>-60.331637993028956</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.492054794520548</v>
+        <v>2.5223013698630137</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>54.147380203048883</v>
+        <v>62.853939362891971</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>1.4286907705289942E-2</v>
+        <v>1.6385281377187689E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.16915958663723529</v>
+        <v>0.17867954451560308</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.66470783434114011</v>
+        <v>0.46556889761332698</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -7842,11 +7948,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43296</v>
+        <v>43297</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -8717,12 +8823,12 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" s="85">
         <v>43087</v>
       </c>
@@ -8736,7 +8842,7 @@
       </c>
       <c r="F1" s="88"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="89" t="s">
         <v>51</v>
       </c>
@@ -8756,7 +8862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="93" t="s">
         <v>57</v>
       </c>
@@ -8776,7 +8882,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="89" t="s">
         <v>59</v>
       </c>
@@ -8796,7 +8902,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="93" t="s">
         <v>61</v>
       </c>
@@ -8808,7 +8914,7 @@
       <c r="E5" s="96"/>
       <c r="F5" s="100"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="89" t="s">
         <v>63</v>
       </c>
@@ -8828,7 +8934,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="93" t="s">
         <v>65</v>
       </c>
@@ -8848,7 +8954,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="89" t="s">
         <v>67</v>
       </c>
@@ -8868,7 +8974,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="93" t="s">
         <v>69</v>
       </c>
@@ -8888,7 +8994,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="89" t="s">
         <v>71</v>
       </c>
@@ -8908,7 +9014,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="93" t="s">
         <v>73</v>
       </c>
@@ -8928,7 +9034,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="89" t="s">
         <v>75</v>
       </c>
@@ -8948,7 +9054,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="93" t="s">
         <v>77</v>
       </c>
@@ -8968,7 +9074,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1">
       <c r="A14" s="89" t="s">
         <v>79</v>
       </c>
@@ -8988,7 +9094,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="15" spans="1:6" ht="29.4" thickBot="1">
       <c r="A15" s="93" t="s">
         <v>81</v>
       </c>
@@ -9000,7 +9106,7 @@
       <c r="E15" s="96"/>
       <c r="F15" s="100"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="89" t="s">
         <v>83</v>
       </c>
@@ -9020,7 +9126,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+    <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="93" t="s">
         <v>85</v>
       </c>
@@ -9040,7 +9146,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="89" t="s">
         <v>87</v>
       </c>
@@ -9052,7 +9158,7 @@
       <c r="E18" s="105"/>
       <c r="F18" s="106"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+    <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="93" t="s">
         <v>89</v>
       </c>
@@ -9064,7 +9170,7 @@
       <c r="E19" s="96"/>
       <c r="F19" s="100"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="89" t="s">
         <v>91</v>
       </c>
@@ -9084,7 +9190,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+    <row r="21" spans="1:6" ht="15" thickBot="1">
       <c r="A21" s="93" t="s">
         <v>93</v>
       </c>
@@ -9096,7 +9202,7 @@
       <c r="E21" s="96"/>
       <c r="F21" s="100"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="15" thickBot="1">
       <c r="A22" s="89" t="s">
         <v>95</v>
       </c>
@@ -9116,7 +9222,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="15" thickBot="1">
       <c r="A23" s="93" t="s">
         <v>97</v>
       </c>
@@ -9136,7 +9242,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="89" t="s">
         <v>39</v>
       </c>
@@ -9156,7 +9262,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="93" t="s">
         <v>100</v>
       </c>
@@ -9176,7 +9282,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15" thickBot="1">
       <c r="A26" s="89" t="s">
         <v>102</v>
       </c>
@@ -9196,7 +9302,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="15" thickBot="1">
       <c r="A27" s="93" t="s">
         <v>104</v>
       </c>
@@ -9208,7 +9314,7 @@
       <c r="E27" s="107"/>
       <c r="F27" s="108"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15" thickBot="1">
       <c r="A28" s="89" t="s">
         <v>106</v>
       </c>
@@ -9220,7 +9326,7 @@
       <c r="E28" s="109"/>
       <c r="F28" s="110"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+    <row r="29" spans="1:6" ht="15" thickBot="1">
       <c r="A29" s="93" t="s">
         <v>108</v>
       </c>
@@ -9240,7 +9346,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+    <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="89" t="s">
         <v>110</v>
       </c>
@@ -9260,7 +9366,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+    <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="93" t="s">
         <v>112</v>
       </c>
@@ -9272,7 +9378,7 @@
       <c r="E31" s="96"/>
       <c r="F31" s="100"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+    <row r="32" spans="1:6" ht="15" thickBot="1">
       <c r="A32" s="89" t="s">
         <v>114</v>
       </c>
@@ -9292,7 +9398,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" s="93" t="s">
         <v>116</v>
       </c>
@@ -9327,7 +9433,7 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -9519,31 +9625,31 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
     <col min="5" max="11" width="9" style="6"/>
-    <col min="12" max="12" width="8.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="7.25" style="6" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="6" customWidth="1"/>
     <col min="15" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="10.125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="6.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="6" customWidth="1"/>
+    <col min="17" max="18" width="6.44140625" style="6" customWidth="1"/>
     <col min="19" max="20" width="9" style="6"/>
-    <col min="21" max="21" width="13.75" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" style="6" customWidth="1"/>
     <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="187"/>
-    </row>
-    <row r="2" spans="1:21" ht="12" thickTop="1">
+      <c r="C1" s="188"/>
+    </row>
+    <row r="2" spans="1:21" ht="12.6" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -9559,7 +9665,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12" thickBot="1">
+    <row r="4" spans="1:21" ht="12.6" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -9567,8 +9673,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" thickTop="1"/>
-    <row r="6" spans="1:21" ht="12" thickBot="1">
+    <row r="5" spans="1:21" ht="12.6" thickTop="1"/>
+    <row r="6" spans="1:21" ht="12.6" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -9590,7 +9696,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" ht="12.75" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="13.2" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -9650,7 +9756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" thickTop="1">
+    <row r="8" spans="1:21" ht="12.6" thickTop="1">
       <c r="A8" s="27"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -9673,18 +9779,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3790</v>
+        <v>3836</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -9698,30 +9804,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>126.60601139177493</v>
+        <v>151.27391081816245</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.492054794520548</v>
+        <v>2.5223013698630137</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>129.09806618629548</v>
+        <v>153.79621218802546</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>3.4062814297175587E-2</v>
+        <v>4.0092860320131769E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.50832715849082888</v>
+        <v>0.56395866765797109</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.3301396215102841</v>
+        <v>4.3264337695532049</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -9753,11 +9859,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -9823,11 +9929,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43116</v>
+        <v>43117</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43146</v>
+        <v>43147</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>

--- a/PricerAndQutation/OptionPricer_v2_20180117.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="602" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="201">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,14 +704,6 @@
     <t>P1805</t>
   </si>
   <si>
-    <t>权利金（每千克）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易量（千克）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HC1805</t>
   </si>
   <si>
@@ -731,7 +723,20 @@
     <t>中金公司</t>
   </si>
   <si>
-    <t xml:space="preserve">中天科技 </t>
+    <t>交易量（吨）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰长城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看涨期权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -740,23 +745,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="###,###,##0"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="###,###,##0.0"/>
+    <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="###,###,##0"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="###,###,##0.0"/>
   </numFmts>
   <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -764,21 +769,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -786,7 +791,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -794,7 +799,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -815,7 +820,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -824,7 +829,7 @@
       <b/>
       <sz val="10"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -833,7 +838,7 @@
       <b/>
       <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -841,7 +846,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -850,14 +855,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -872,7 +877,7 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -881,14 +886,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -896,13 +901,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -910,7 +915,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -918,7 +923,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -926,7 +931,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1313,8 +1318,8 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1322,9 +1327,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1357,9 +1362,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1388,25 +1393,25 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="21" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="21" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="24" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,17 +1513,17 @@
     <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="21" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1526,11 +1531,11 @@
     <xf numFmtId="2" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="21" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1538,11 +1543,11 @@
     <xf numFmtId="2" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="21" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1550,8 +1555,8 @@
     <xf numFmtId="2" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="21" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1562,15 +1567,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1580,38 +1576,47 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1643,7 +1648,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>14765</v>
+        <v>14790</v>
         <stp/>
         <stp>al1805</stp>
         <stp>LastPrice</stp>
@@ -1651,16 +1656,16 @@
         <tr r="P15" s="1"/>
       </tp>
       <tp>
-        <v>3836</v>
+        <v>3859</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
       <tp>
-        <v>15205</v>
+        <v>15515</v>
         <stp/>
         <stp>CF805</stp>
         <stp>LastPrice</stp>
@@ -1964,18 +1969,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:R34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="6" width="12.6640625" style="6" customWidth="1"/>
-    <col min="7" max="13" width="12.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="12.6640625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="6" customWidth="1"/>
+    <col min="2" max="6" width="12.625" style="6" customWidth="1"/>
+    <col min="7" max="13" width="12.625" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="12.625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="6" customWidth="1"/>
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1986,7 +1991,7 @@
       <c r="C1" s="169"/>
       <c r="D1" s="169"/>
     </row>
-    <row r="2" spans="2:18" ht="12.6" thickTop="1"/>
+    <row r="2" spans="2:18" ht="12" thickTop="1"/>
     <row r="5" spans="2:18">
       <c r="B5" s="114" t="s">
         <v>2</v>
@@ -2353,7 +2358,7 @@
         <v>160</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D12" s="116">
         <v>43111</v>
@@ -2493,7 +2498,7 @@
         <v>160</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" s="116">
         <v>43111</v>
@@ -2544,7 +2549,7 @@
         <v>160</v>
       </c>
       <c r="C17" s="115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" s="116">
         <v>43111</v>
@@ -2595,7 +2600,7 @@
         <v>160</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D18" s="116">
         <v>43111</v>
@@ -2646,7 +2651,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19" s="116">
         <v>43111</v>
@@ -2748,7 +2753,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" s="116">
         <v>43111</v>
@@ -2801,7 +2806,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22" s="116">
         <v>43111</v>
@@ -2854,7 +2859,7 @@
         <v>160</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D23" s="116">
         <v>43111</v>
@@ -2907,7 +2912,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D24" s="116">
         <v>43111</v>
@@ -3011,7 +3016,7 @@
         <v>160</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D26" s="116">
         <v>43116</v>
@@ -3062,7 +3067,7 @@
         <v>160</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D27" s="116">
         <v>43116</v>
@@ -3113,7 +3118,7 @@
         <v>160</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D28" s="116">
         <v>43116</v>
@@ -3164,7 +3169,7 @@
         <v>160</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D29" s="116">
         <v>43116</v>
@@ -3266,7 +3271,7 @@
         <v>160</v>
       </c>
       <c r="C31" s="115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D31" s="116">
         <v>43116</v>
@@ -3317,7 +3322,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D32" s="116">
         <v>43116</v>
@@ -3368,7 +3373,7 @@
         <v>160</v>
       </c>
       <c r="C33" s="115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D33" s="116">
         <v>43116</v>
@@ -3419,7 +3424,7 @@
         <v>160</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D34" s="116">
         <v>43116</v>
@@ -3484,21 +3489,21 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="10.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="6" customWidth="1"/>
     <col min="4" max="6" width="9" style="6"/>
-    <col min="7" max="8" width="13.44140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="13.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="6" customWidth="1"/>
     <col min="12" max="12" width="9" style="6"/>
     <col min="13" max="13" width="9" style="6" customWidth="1"/>
     <col min="14" max="17" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="6" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.109375" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="6" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="6" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -3509,7 +3514,7 @@
       <c r="C1" s="169"/>
       <c r="D1" s="169"/>
     </row>
-    <row r="2" spans="1:21" ht="12.6" thickTop="1"/>
+    <row r="2" spans="1:21" ht="12" thickTop="1"/>
     <row r="3" spans="1:21">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -3530,7 +3535,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
     </row>
-    <row r="4" spans="1:21" ht="12.6" thickBot="1">
+    <row r="4" spans="1:21" ht="12" thickBot="1">
       <c r="A4" s="54"/>
       <c r="B4" s="17" t="s">
         <v>30</v>
@@ -3591,7 +3596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.6" thickTop="1">
+    <row r="5" spans="1:21" ht="12" thickTop="1">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3613,7 +3618,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="7" spans="1:21" ht="12.6" thickBot="1">
+    <row r="7" spans="1:21" ht="12" thickBot="1">
       <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
@@ -3673,7 +3678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.6" thickTop="1">
+    <row r="8" spans="1:21" ht="12" thickTop="1">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -3732,91 +3737,91 @@
   <dimension ref="B1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="B22:E34"/>
+      <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="3" width="9" style="6"/>
     <col min="4" max="4" width="9" style="6" customWidth="1"/>
     <col min="5" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="12.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="6" customWidth="1"/>
     <col min="9" max="9" width="9" style="6"/>
-    <col min="10" max="10" width="10.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1">
-      <c r="B1" s="181" t="s">
+    <row r="1" spans="2:20" ht="14.25" thickBot="1">
+      <c r="B1" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="181"/>
-    </row>
-    <row r="2" spans="2:20" ht="12.6" thickTop="1"/>
-    <row r="3" spans="2:20" ht="14.4" thickBot="1">
-      <c r="B3" s="180" t="s">
+      <c r="C1" s="184"/>
+    </row>
+    <row r="2" spans="2:20" ht="12" thickTop="1"/>
+    <row r="3" spans="2:20" ht="12.75" thickBot="1">
+      <c r="B3" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="G3" s="177" t="s">
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="G3" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="L3" s="180" t="s">
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="L3" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
-      <c r="Q3" s="177" t="s">
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="Q3" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="177"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="177"/>
-    </row>
-    <row r="4" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B4" s="178" t="s">
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="186"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
+      <c r="B4" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="G4" s="178" t="s">
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="G4" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="L4" s="178" t="s">
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="L4" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="Q4" s="178" t="s">
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="Q4" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-    </row>
-    <row r="5" spans="2:20" ht="15" thickTop="1">
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+    </row>
+    <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="176" t="s">
+      <c r="G5" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="176"/>
+      <c r="H5" s="183"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -3825,368 +3830,368 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="176" t="s">
+      <c r="Q5" s="183" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="176"/>
+      <c r="R5" s="183"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="2:20" ht="14.4">
-      <c r="B6" s="173" t="s">
+    <row r="6" spans="2:20" ht="13.5">
+      <c r="B6" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="174" t="s">
+      <c r="C6" s="170"/>
+      <c r="D6" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="175"/>
-      <c r="G6" s="176" t="s">
+      <c r="E6" s="172"/>
+      <c r="G6" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="176"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="175"/>
-      <c r="L6" s="173" t="s">
+      <c r="H6" s="183"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
+      <c r="L6" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="173"/>
-      <c r="N6" s="174" t="s">
+      <c r="M6" s="170"/>
+      <c r="N6" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="175"/>
-      <c r="Q6" s="176" t="s">
+      <c r="O6" s="172"/>
+      <c r="Q6" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="176"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="175"/>
-    </row>
-    <row r="7" spans="2:20" ht="14.4">
-      <c r="B7" s="173" t="s">
+      <c r="R6" s="183"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="172"/>
+    </row>
+    <row r="7" spans="2:20" ht="13.5">
+      <c r="B7" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174" t="s">
+      <c r="C7" s="170"/>
+      <c r="D7" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="G7" s="176" t="s">
+      <c r="E7" s="172"/>
+      <c r="G7" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
-      <c r="L7" s="173" t="s">
+      <c r="H7" s="183"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
+      <c r="L7" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="173"/>
-      <c r="N7" s="174" t="s">
+      <c r="M7" s="170"/>
+      <c r="N7" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="175"/>
-      <c r="Q7" s="176" t="s">
+      <c r="O7" s="172"/>
+      <c r="Q7" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="176"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="175"/>
-    </row>
-    <row r="8" spans="2:20" ht="14.4">
-      <c r="B8" s="173" t="s">
+      <c r="R7" s="183"/>
+      <c r="S7" s="171"/>
+      <c r="T7" s="172"/>
+    </row>
+    <row r="8" spans="2:20" ht="13.5">
+      <c r="B8" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="174">
+      <c r="C8" s="170"/>
+      <c r="D8" s="171">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="175"/>
-      <c r="G8" s="176" t="s">
+      <c r="E8" s="172"/>
+      <c r="G8" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="176"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
-      <c r="L8" s="173" t="s">
+      <c r="H8" s="183"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
+      <c r="L8" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="174">
+      <c r="M8" s="170"/>
+      <c r="N8" s="171">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="175"/>
-      <c r="Q8" s="176" t="s">
+      <c r="O8" s="172"/>
+      <c r="Q8" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="176"/>
-      <c r="S8" s="174"/>
-      <c r="T8" s="175"/>
-    </row>
-    <row r="9" spans="2:20" ht="14.4">
-      <c r="B9" s="173" t="s">
+      <c r="R8" s="183"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="172"/>
+    </row>
+    <row r="9" spans="2:20" ht="13.5">
+      <c r="B9" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="174" t="s">
+      <c r="C9" s="170"/>
+      <c r="D9" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="175"/>
-      <c r="G9" s="176" t="s">
+      <c r="E9" s="172"/>
+      <c r="G9" s="183" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-      <c r="L9" s="173" t="s">
+      <c r="H9" s="183"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
+      <c r="L9" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="173"/>
-      <c r="N9" s="174" t="s">
+      <c r="M9" s="170"/>
+      <c r="N9" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="175"/>
-      <c r="Q9" s="176" t="s">
+      <c r="O9" s="172"/>
+      <c r="Q9" s="183" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="176"/>
-      <c r="S9" s="174"/>
-      <c r="T9" s="175"/>
-    </row>
-    <row r="10" spans="2:20" ht="14.4">
-      <c r="B10" s="173" t="s">
+      <c r="R9" s="183"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="172"/>
+    </row>
+    <row r="10" spans="2:20" ht="13.5">
+      <c r="B10" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174">
+      <c r="C10" s="170"/>
+      <c r="D10" s="171">
         <v>43084</v>
       </c>
-      <c r="E10" s="175"/>
+      <c r="E10" s="172"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
-      <c r="L10" s="173" t="s">
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
+      <c r="L10" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="173"/>
-      <c r="N10" s="174">
+      <c r="M10" s="170"/>
+      <c r="N10" s="171">
         <v>43084</v>
       </c>
-      <c r="O10" s="175"/>
+      <c r="O10" s="172"/>
       <c r="Q10" s="52" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="52"/>
-      <c r="S10" s="174"/>
-      <c r="T10" s="175"/>
-    </row>
-    <row r="11" spans="2:20" ht="14.4">
-      <c r="B11" s="173" t="s">
+      <c r="S10" s="171"/>
+      <c r="T10" s="172"/>
+    </row>
+    <row r="11" spans="2:20" ht="13.5">
+      <c r="B11" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="173"/>
-      <c r="D11" s="174">
+      <c r="C11" s="170"/>
+      <c r="D11" s="171">
         <v>3935</v>
       </c>
-      <c r="E11" s="175"/>
-      <c r="G11" s="176" t="s">
+      <c r="E11" s="172"/>
+      <c r="G11" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="176"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
-      <c r="L11" s="173" t="s">
+      <c r="H11" s="183"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
+      <c r="L11" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="173"/>
-      <c r="N11" s="174">
+      <c r="M11" s="170"/>
+      <c r="N11" s="171">
         <v>3935</v>
       </c>
-      <c r="O11" s="175"/>
-      <c r="Q11" s="176" t="s">
+      <c r="O11" s="172"/>
+      <c r="Q11" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="176"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="175"/>
-    </row>
-    <row r="12" spans="2:20" ht="14.4">
-      <c r="B12" s="173" t="s">
+      <c r="R11" s="183"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="172"/>
+    </row>
+    <row r="12" spans="2:20" ht="13.5">
+      <c r="B12" s="170" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="173"/>
-      <c r="D12" s="174">
+      <c r="C12" s="170"/>
+      <c r="D12" s="171">
         <v>3800</v>
       </c>
-      <c r="E12" s="175"/>
-      <c r="G12" s="176" t="s">
+      <c r="E12" s="172"/>
+      <c r="G12" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="176"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175"/>
-      <c r="L12" s="173" t="s">
+      <c r="H12" s="183"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
+      <c r="L12" s="170" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="173"/>
-      <c r="N12" s="174">
+      <c r="M12" s="170"/>
+      <c r="N12" s="171">
         <v>3800</v>
       </c>
-      <c r="O12" s="175"/>
-      <c r="Q12" s="176" t="s">
+      <c r="O12" s="172"/>
+      <c r="Q12" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="176"/>
-      <c r="S12" s="174"/>
-      <c r="T12" s="175"/>
-    </row>
-    <row r="13" spans="2:20" ht="14.4">
-      <c r="B13" s="173" t="s">
+      <c r="R12" s="183"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="172"/>
+    </row>
+    <row r="13" spans="2:20" ht="13.5">
+      <c r="B13" s="170" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174">
+      <c r="C13" s="170"/>
+      <c r="D13" s="171">
         <v>61</v>
       </c>
-      <c r="E13" s="175"/>
-      <c r="G13" s="176" t="s">
+      <c r="E13" s="172"/>
+      <c r="G13" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="176"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
-      <c r="L13" s="173" t="s">
+      <c r="H13" s="183"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="172"/>
+      <c r="L13" s="170" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="173"/>
-      <c r="N13" s="174">
+      <c r="M13" s="170"/>
+      <c r="N13" s="171">
         <v>3800</v>
       </c>
-      <c r="O13" s="175"/>
-      <c r="Q13" s="176" t="s">
+      <c r="O13" s="172"/>
+      <c r="Q13" s="183" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="176"/>
-      <c r="S13" s="174"/>
-      <c r="T13" s="175"/>
-    </row>
-    <row r="14" spans="2:20" ht="14.4">
-      <c r="B14" s="173" t="s">
+      <c r="R13" s="183"/>
+      <c r="S13" s="171"/>
+      <c r="T13" s="172"/>
+    </row>
+    <row r="14" spans="2:20" ht="13.5">
+      <c r="B14" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174" t="s">
+      <c r="C14" s="170"/>
+      <c r="D14" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="175"/>
-      <c r="G14" s="176" t="s">
+      <c r="E14" s="172"/>
+      <c r="G14" s="183" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="176"/>
+      <c r="H14" s="183"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="173" t="s">
+      <c r="L14" s="170" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="173"/>
-      <c r="N14" s="174">
+      <c r="M14" s="170"/>
+      <c r="N14" s="171">
         <v>61</v>
       </c>
-      <c r="O14" s="175"/>
-      <c r="Q14" s="176" t="s">
+      <c r="O14" s="172"/>
+      <c r="Q14" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="176"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="175"/>
-    </row>
-    <row r="15" spans="2:20" ht="14.4">
-      <c r="B15" s="173" t="s">
+      <c r="R14" s="183"/>
+      <c r="S14" s="171"/>
+      <c r="T14" s="172"/>
+    </row>
+    <row r="15" spans="2:20" ht="13.5">
+      <c r="B15" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174">
+      <c r="C15" s="170"/>
+      <c r="D15" s="171">
         <v>5000</v>
       </c>
-      <c r="E15" s="175"/>
-      <c r="G15" s="176" t="s">
+      <c r="E15" s="172"/>
+      <c r="G15" s="183" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="176"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
-      <c r="L15" s="173" t="s">
+      <c r="H15" s="183"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="172"/>
+      <c r="L15" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="173"/>
-      <c r="N15" s="174" t="s">
+      <c r="M15" s="170"/>
+      <c r="N15" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="175"/>
-      <c r="Q15" s="176" t="s">
+      <c r="O15" s="172"/>
+      <c r="Q15" s="183" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="176"/>
+      <c r="R15" s="183"/>
       <c r="S15" s="50"/>
       <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="2:20" ht="15" thickBot="1">
-      <c r="B16" s="179" t="s">
+    <row r="16" spans="2:20" ht="14.25" thickBot="1">
+      <c r="B16" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="179"/>
-      <c r="D16" s="171" t="s">
+      <c r="C16" s="175"/>
+      <c r="D16" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="172"/>
-      <c r="G16" s="170" t="s">
+      <c r="E16" s="177"/>
+      <c r="G16" s="179" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="170"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
-      <c r="L16" s="173" t="s">
+      <c r="H16" s="179"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="177"/>
+      <c r="L16" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="173"/>
-      <c r="N16" s="174">
+      <c r="M16" s="170"/>
+      <c r="N16" s="171">
         <v>5000</v>
       </c>
-      <c r="O16" s="175"/>
-      <c r="Q16" s="176" t="s">
+      <c r="O16" s="172"/>
+      <c r="Q16" s="183" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="176"/>
-      <c r="S16" s="174"/>
-      <c r="T16" s="175"/>
-    </row>
-    <row r="17" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="L17" s="179" t="s">
+      <c r="R16" s="183"/>
+      <c r="S16" s="171"/>
+      <c r="T16" s="172"/>
+    </row>
+    <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
+      <c r="L17" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="179"/>
-      <c r="N17" s="171" t="s">
+      <c r="M17" s="175"/>
+      <c r="N17" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="172"/>
-      <c r="Q17" s="170" t="s">
+      <c r="O17" s="177"/>
+      <c r="Q17" s="179" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="170"/>
-      <c r="S17" s="171"/>
-      <c r="T17" s="172"/>
-    </row>
-    <row r="18" spans="2:20" ht="12.6" thickTop="1"/>
-    <row r="19" spans="2:20" ht="14.4">
+      <c r="R17" s="179"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="177"/>
+    </row>
+    <row r="18" spans="2:20" ht="12" thickTop="1"/>
+    <row r="19" spans="2:20" ht="13.5">
       <c r="B19" s="28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="12.6" thickBot="1">
+    <row r="21" spans="2:20" ht="12" thickBot="1">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4195,325 +4200,379 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="2:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B22" s="178" t="s">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
+      <c r="B22" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="G22" s="178" t="s">
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="G22" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-    </row>
-    <row r="23" spans="2:20" ht="15" thickTop="1">
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="L22" s="180" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+    </row>
+    <row r="23" spans="2:20" ht="14.25" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="185">
-        <v>43117</v>
-      </c>
-      <c r="E23" s="186"/>
+      <c r="D23" s="181">
+        <v>43118</v>
+      </c>
+      <c r="E23" s="182"/>
       <c r="G23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="186"/>
-    </row>
-    <row r="24" spans="2:20" ht="14.4">
-      <c r="B24" s="173" t="s">
+      <c r="I23" s="181"/>
+      <c r="J23" s="182"/>
+      <c r="L23" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="181">
+        <v>43118</v>
+      </c>
+      <c r="O23" s="182"/>
+    </row>
+    <row r="24" spans="2:20" ht="13.5">
+      <c r="B24" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="173"/>
-      <c r="D24" s="174" t="s">
+      <c r="C24" s="170"/>
+      <c r="D24" s="171" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="172"/>
+      <c r="G24" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="170"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
+      <c r="L24" s="170" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="170"/>
+      <c r="N24" s="171" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" s="172"/>
+    </row>
+    <row r="25" spans="2:20" ht="13.5">
+      <c r="B25" s="170" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="175"/>
-      <c r="G24" s="173" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="173"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
-    </row>
-    <row r="25" spans="2:20" ht="14.4">
-      <c r="B25" s="173" t="s">
+      <c r="E25" s="172"/>
+      <c r="G25" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="170"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
+      <c r="L25" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="173"/>
-      <c r="D25" s="174" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="175"/>
-      <c r="G25" s="173" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25" s="173"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
-    </row>
-    <row r="26" spans="2:20" ht="14.4">
-      <c r="B26" s="173" t="s">
+      <c r="M25" s="170"/>
+      <c r="N25" s="171" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" s="172"/>
+    </row>
+    <row r="26" spans="2:20" ht="13.5">
+      <c r="B26" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="182">
+      <c r="C26" s="170"/>
+      <c r="D26" s="173">
         <f>D33*D31</f>
-        <v>400000</v>
-      </c>
-      <c r="E26" s="183"/>
+        <v>95265</v>
+      </c>
+      <c r="E26" s="174"/>
       <c r="G26" s="111" t="s">
         <v>182</v>
       </c>
       <c r="H26" s="111"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
-    </row>
-    <row r="27" spans="2:20" ht="14.4">
-      <c r="B27" s="173" t="s">
+      <c r="I26" s="171"/>
+      <c r="J26" s="172"/>
+      <c r="L26" s="170" t="s">
+        <v>129</v>
+      </c>
+      <c r="M26" s="170"/>
+      <c r="N26" s="173">
+        <f>N33*N31</f>
+        <v>95265</v>
+      </c>
+      <c r="O26" s="174"/>
+    </row>
+    <row r="27" spans="2:20" ht="13.5">
+      <c r="B27" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="174" t="s">
+      <c r="C27" s="170"/>
+      <c r="D27" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="175"/>
-      <c r="G27" s="173" t="s">
+      <c r="E27" s="172"/>
+      <c r="G27" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="173"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
-    </row>
-    <row r="28" spans="2:20" ht="14.4">
-      <c r="B28" s="173" t="s">
+      <c r="H27" s="170"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="172"/>
+      <c r="L27" s="170" t="s">
+        <v>131</v>
+      </c>
+      <c r="M27" s="170"/>
+      <c r="N27" s="171" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" s="172"/>
+    </row>
+    <row r="28" spans="2:20" ht="13.5">
+      <c r="B28" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="184">
-        <v>43200</v>
-      </c>
-      <c r="E28" s="175"/>
-      <c r="G28" s="173" t="s">
+      <c r="C28" s="170"/>
+      <c r="D28" s="178">
+        <v>43140</v>
+      </c>
+      <c r="E28" s="172"/>
+      <c r="G28" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="173"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="175"/>
-    </row>
-    <row r="29" spans="2:20" ht="14.4">
-      <c r="B29" s="173" t="s">
+      <c r="H28" s="170"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="172"/>
+      <c r="L28" s="170" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" s="170"/>
+      <c r="N28" s="178">
+        <v>43140</v>
+      </c>
+      <c r="O28" s="172"/>
+    </row>
+    <row r="29" spans="2:20" ht="13.5">
+      <c r="B29" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="174">
-        <v>14800</v>
-      </c>
-      <c r="E29" s="175"/>
-      <c r="G29" s="173" t="s">
+      <c r="C29" s="170"/>
+      <c r="D29" s="171">
+        <v>14240</v>
+      </c>
+      <c r="E29" s="172"/>
+      <c r="G29" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="173"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
-    </row>
-    <row r="30" spans="2:20" ht="14.4">
-      <c r="B30" s="173" t="s">
+      <c r="H29" s="170"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="172"/>
+      <c r="L29" s="170" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" s="170"/>
+      <c r="N29" s="171">
+        <v>14240</v>
+      </c>
+      <c r="O29" s="172"/>
+    </row>
+    <row r="30" spans="2:20" ht="13.5">
+      <c r="B30" s="170" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="173"/>
-      <c r="D30" s="174">
-        <v>14500</v>
-      </c>
-      <c r="E30" s="175"/>
-      <c r="G30" s="173" t="s">
+      <c r="C30" s="170"/>
+      <c r="D30" s="171">
+        <v>14240</v>
+      </c>
+      <c r="E30" s="172"/>
+      <c r="G30" s="170" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="173"/>
+      <c r="H30" s="170"/>
       <c r="I30" s="112"/>
       <c r="J30" s="113"/>
-    </row>
-    <row r="31" spans="2:20" ht="14.4">
-      <c r="B31" s="173" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="173"/>
-      <c r="D31" s="174">
+      <c r="L30" s="170" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" s="170"/>
+      <c r="N30" s="171">
+        <v>14240</v>
+      </c>
+      <c r="O30" s="172"/>
+    </row>
+    <row r="31" spans="2:20" ht="13.5">
+      <c r="B31" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="170"/>
+      <c r="D31" s="171">
+        <v>317.55</v>
+      </c>
+      <c r="E31" s="172"/>
+      <c r="G31" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="170"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="172"/>
+      <c r="L31" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" s="170"/>
+      <c r="N31" s="171">
+        <v>317.55</v>
+      </c>
+      <c r="O31" s="172"/>
+    </row>
+    <row r="32" spans="2:20" ht="13.5">
+      <c r="B32" s="170" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="170"/>
+      <c r="D32" s="171" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="175"/>
-      <c r="G31" s="173" t="s">
-        <v>180</v>
-      </c>
-      <c r="H31" s="173"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="175"/>
-    </row>
-    <row r="32" spans="2:20" ht="14.4">
-      <c r="B32" s="173" t="s">
+      <c r="E32" s="172"/>
+      <c r="G32" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="170"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="172"/>
+      <c r="L32" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="173"/>
-      <c r="D32" s="174" t="s">
+      <c r="M32" s="170"/>
+      <c r="N32" s="171" t="s">
+        <v>200</v>
+      </c>
+      <c r="O32" s="172"/>
+    </row>
+    <row r="33" spans="2:15" ht="13.5">
+      <c r="B33" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="175"/>
-      <c r="G32" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="173"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175"/>
-    </row>
-    <row r="33" spans="2:10" ht="14.4">
-      <c r="B33" s="173" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="173"/>
-      <c r="D33" s="182">
-        <v>2000</v>
-      </c>
-      <c r="E33" s="183"/>
-      <c r="G33" s="173" t="s">
+      <c r="C33" s="170"/>
+      <c r="D33" s="173">
+        <v>300</v>
+      </c>
+      <c r="E33" s="174"/>
+      <c r="G33" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="173"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
-    </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1">
-      <c r="B34" s="179" t="s">
+      <c r="H33" s="170"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
+      <c r="L33" s="170" t="s">
+        <v>197</v>
+      </c>
+      <c r="M33" s="170"/>
+      <c r="N33" s="173">
+        <v>300</v>
+      </c>
+      <c r="O33" s="174"/>
+    </row>
+    <row r="34" spans="2:15" ht="14.25" thickBot="1">
+      <c r="B34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="179"/>
-      <c r="D34" s="171" t="s">
+      <c r="C34" s="175"/>
+      <c r="D34" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="172"/>
-      <c r="G34" s="173" t="s">
+      <c r="E34" s="177"/>
+      <c r="G34" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="173"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.6" thickTop="1" thickBot="1">
-      <c r="G35" s="179" t="s">
+      <c r="H34" s="170"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="174"/>
+      <c r="L34" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="179"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="172"/>
-    </row>
-    <row r="36" spans="2:10" ht="12.6" thickTop="1"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="176" t="s">
+        <v>148</v>
+      </c>
+      <c r="O34" s="177"/>
+    </row>
+    <row r="35" spans="2:15" ht="15" thickTop="1" thickBot="1">
+      <c r="G35" s="175" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="175"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="177"/>
+    </row>
+    <row r="36" spans="2:15" ht="12" thickTop="1"/>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+  <mergeCells count="171">
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -4538,29 +4597,106 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4572,40 +4708,40 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
     <col min="4" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="8.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="6" customWidth="1"/>
     <col min="10" max="10" width="9" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="6" customWidth="1"/>
     <col min="12" max="12" width="9" style="6" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="6" customWidth="1"/>
     <col min="14" max="14" width="10" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="6" customWidth="1"/>
     <col min="16" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="6.44140625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="6.21875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="6.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="6" customWidth="1"/>
     <col min="19" max="19" width="7" style="6" customWidth="1"/>
     <col min="20" max="21" width="9" style="6"/>
-    <col min="22" max="22" width="13.77734375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="181"/>
-    </row>
-    <row r="2" spans="1:22" ht="12.6" thickTop="1">
+      <c r="C1" s="184"/>
+    </row>
+    <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4621,7 +4757,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.6" thickBot="1">
+    <row r="4" spans="1:22" ht="12" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -4629,8 +4765,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12.6" thickTop="1"/>
-    <row r="6" spans="1:22" ht="12.6" thickBot="1">
+    <row r="5" spans="1:22" ht="12" thickTop="1"/>
+    <row r="6" spans="1:22" ht="12" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4653,7 +4789,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="13.2" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="12.75" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>170</v>
       </c>
@@ -4716,7 +4852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="12.6" thickTop="1">
+    <row r="8" spans="1:22" ht="12" thickTop="1">
       <c r="A8" s="53"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -4729,11 +4865,11 @@
       </c>
       <c r="E8" s="21">
         <f t="shared" ref="E8:E16" ca="1" si="0">TODAY()</f>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -4753,22 +4889,22 @@
       </c>
       <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-149.50247563085418</v>
+        <v>-162.69014655766614</v>
       </c>
       <c r="M8" s="25">
         <v>80</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N9" si="3">M8/10000*I8*P8</f>
-        <v>2.5223013698630137</v>
+        <v>2.5374246575342467</v>
       </c>
       <c r="O8" s="24">
         <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>152.02477700071719</v>
+        <v>165.22757121520038</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3836</v>
+        <v>3859</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -4782,15 +4918,15 @@
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>3.9631068039811576E-2</v>
+        <v>4.2816162533091576E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.55973603185748289</v>
+        <v>-0.5869318391660272</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-4.3293922741355573</v>
+        <v>-4.2989455292145067</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -4806,11 +4942,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43149</v>
+        <v>43150</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -4880,11 +5016,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" ca="1" si="7">E10+H10</f>
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="G10" s="10">
         <v>95</v>
@@ -4950,15 +5086,15 @@
         <v>189</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="G11" s="10">
         <v>14800</v>
@@ -4978,7 +5114,7 @@
       </c>
       <c r="L11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>45.537235547863474</v>
+        <v>11.426734327603072</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="13">
@@ -4987,11 +5123,11 @@
       </c>
       <c r="O11" s="13">
         <f t="shared" si="9"/>
-        <v>45.537235547863474</v>
+        <v>11.426734327603072</v>
       </c>
       <c r="P11" s="11">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>15205</v>
+        <v>15515</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>85</v>
@@ -5005,15 +5141,15 @@
       </c>
       <c r="T11" s="14">
         <f t="shared" si="11"/>
-        <v>2.9948855999910209E-3</v>
+        <v>7.3649592830184153E-4</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.18061620846765436</v>
+        <v>-5.6690039741624787E-2</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>11.425245512963329</v>
+        <v>5.055879546396568</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -5025,15 +5161,15 @@
         <v>189</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12" ca="1" si="12">E12+H12</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="G12" s="10">
         <v>14800</v>
@@ -5053,7 +5189,7 @@
       </c>
       <c r="L12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-96.810334245733884</v>
+        <v>-40.249089828311298</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="13">
@@ -5062,11 +5198,11 @@
       </c>
       <c r="O12" s="13">
         <f t="shared" ref="O12" si="15">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
-        <v>96.810334245733884</v>
+        <v>40.249089828311298</v>
       </c>
       <c r="P12" s="11">
         <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
-        <v>15205</v>
+        <v>15515</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>85</v>
@@ -5080,15 +5216,15 @@
       </c>
       <c r="T12" s="14">
         <f t="shared" ref="T12" si="17">O12/P12</f>
-        <v>6.3670065271775001E-3</v>
+        <v>2.59420495187311E-3</v>
       </c>
       <c r="U12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.25094595057453262</v>
+        <v>0.12369121998290211</v>
       </c>
       <c r="V12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-13.857327812969515</v>
+        <v>-9.0688855794915071</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -5100,15 +5236,15 @@
         <v>189</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13:F14" ca="1" si="18">E13+H13</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="G13" s="10">
         <v>15600</v>
@@ -5128,7 +5264,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>50.717197448189836</v>
+        <v>147.15233108834673</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13">
@@ -5137,11 +5273,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" ref="O13:O14" si="21">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>50.717197448189836</v>
+        <v>147.15233108834673</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>15205</v>
+        <v>15515</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>39</v>
@@ -5155,15 +5291,15 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13:T14" si="23">O13/P13</f>
-        <v>3.335560503004922E-3</v>
+        <v>9.4845202119462919E-3</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.20098742763821065</v>
+        <v>0.43318922921571357</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>12.201402086808685</v>
+        <v>17.469526118331942</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -5175,15 +5311,15 @@
         <v>189</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="G14" s="10">
         <v>15600</v>
@@ -5203,7 +5339,7 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-104.85989571928712</v>
+        <v>-217.35591485587611</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="13">
@@ -5212,11 +5348,11 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" si="21"/>
-        <v>104.85989571928712</v>
+        <v>217.35591485587611</v>
       </c>
       <c r="P14" s="11">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>15205</v>
+        <v>15515</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>39</v>
@@ -5230,15 +5366,15 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" si="23"/>
-        <v>6.8964087944286172E-3</v>
+        <v>1.4009404760288502E-2</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.27508115556429402</v>
+        <v>-0.4551996643840539</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-14.523662023506859</v>
+        <v>-17.607014647593132</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -5250,15 +5386,15 @@
         <v>189</v>
       </c>
       <c r="D15" s="168" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15" ca="1" si="24">E15+H15</f>
-        <v>43201</v>
+        <v>43202</v>
       </c>
       <c r="G15" s="10">
         <v>14500</v>
@@ -5278,7 +5414,7 @@
       </c>
       <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-218.97989880496698</v>
+        <v>-210.0176363601322</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="13">
@@ -5287,11 +5423,11 @@
       </c>
       <c r="O15" s="13">
         <f t="shared" ref="O15" si="27">IF(L15&lt;=0,ABS(L15)+N15,L15-N15)</f>
-        <v>218.97989880496698</v>
+        <v>210.0176363601322</v>
       </c>
       <c r="P15" s="11">
         <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
-        <v>14765</v>
+        <v>14790</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>85</v>
@@ -5305,15 +5441,15 @@
       </c>
       <c r="T15" s="14">
         <f t="shared" ref="T15" si="29">O15/P15</f>
-        <v>1.4831012448694005E-2</v>
+        <v>1.419997541312591E-2</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>0.36397417957232392</v>
+        <v>0.35302909768688551</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-26.508615102818112</v>
+        <v>-26.273888692536275</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -5325,15 +5461,15 @@
         <v>161</v>
       </c>
       <c r="D16" s="168" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="30">E16+H16</f>
-        <v>43201</v>
+        <v>43202</v>
       </c>
       <c r="G16" s="10">
         <v>14200</v>
@@ -5353,7 +5489,7 @@
       </c>
       <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-123.0489903530779</v>
+        <v>-117.19141751486541</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13">
@@ -5362,11 +5498,11 @@
       </c>
       <c r="O16" s="13">
         <f t="shared" ref="O16" si="33">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
-        <v>123.0489903530779</v>
+        <v>117.19141751486541</v>
       </c>
       <c r="P16" s="11">
         <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
-        <v>14765</v>
+        <v>14790</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>85</v>
@@ -5380,15 +5516,15 @@
       </c>
       <c r="T16" s="14">
         <f t="shared" ref="T16" si="35">O16/P16</f>
-        <v>8.3338293500222083E-3</v>
+        <v>7.9236928678069925E-3</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>0.23881867195996165</v>
+        <v>0.22982147479524428</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-21.884783293990495</v>
+        <v>-21.460007634143267</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -5459,7 +5595,7 @@
       <c r="O19" s="117"/>
       <c r="P19" s="123">
         <f>P15*2000</f>
-        <v>29530000</v>
+        <v>29580000</v>
       </c>
       <c r="Q19" s="118"/>
       <c r="R19" s="118"/>
@@ -5486,14 +5622,14 @@
       <c r="O20" s="117"/>
       <c r="P20" s="123">
         <f>P19*0.09</f>
-        <v>2657700</v>
+        <v>2662200</v>
       </c>
       <c r="Q20" s="118"/>
       <c r="R20" s="118"/>
       <c r="S20" s="118"/>
       <c r="T20" s="124">
         <f>200*U16</f>
-        <v>47.76373439199233</v>
+        <v>45.964294959048857</v>
       </c>
       <c r="U20" s="117"/>
       <c r="V20" s="117"/>
@@ -6577,29 +6713,29 @@
       <selection activeCell="G11" sqref="A11:XFD78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="6" customWidth="1"/>
-    <col min="9" max="10" width="8.109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.21875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="15.21875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="6" customWidth="1"/>
+    <col min="9" max="10" width="8.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.25" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="6"/>
     <col min="19" max="19" width="7" style="6" customWidth="1"/>
     <col min="20" max="20" width="9" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.77734375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -6607,9 +6743,9 @@
       <c r="B1" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="181"/>
-    </row>
-    <row r="2" spans="1:22" ht="12.6" thickTop="1">
+      <c r="C1" s="184"/>
+    </row>
+    <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
@@ -6625,7 +6761,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.6" thickBot="1">
+    <row r="4" spans="1:22" ht="12" thickBot="1">
       <c r="B4" s="38" t="s">
         <v>18</v>
       </c>
@@ -6633,8 +6769,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="12.6" thickTop="1"/>
-    <row r="6" spans="1:22" ht="12.6" thickBot="1">
+    <row r="5" spans="1:22" ht="12" thickTop="1"/>
+    <row r="6" spans="1:22" ht="12" thickBot="1">
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -6657,7 +6793,7 @@
       <c r="U6" s="39"/>
       <c r="V6" s="39"/>
     </row>
-    <row r="7" spans="1:22" ht="15.6" thickTop="1" thickBot="1">
+    <row r="7" spans="1:22" ht="15" thickTop="1" thickBot="1">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>29</v>
@@ -6721,7 +6857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickTop="1">
+    <row r="8" spans="1:22" ht="14.25" thickTop="1">
       <c r="A8" s="61"/>
       <c r="B8" s="62" t="s">
         <v>173</v>
@@ -6738,11 +6874,11 @@
       </c>
       <c r="F8" s="65">
         <f ca="1">TODAY()</f>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="G8" s="65">
         <f ca="1">F8+I8</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="H8" s="63">
         <v>100</v>
@@ -6789,7 +6925,7 @@
         <v>-0.11406523569462124</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.4">
+    <row r="9" spans="1:22" ht="13.5">
       <c r="A9" s="61"/>
       <c r="B9" s="70" t="s">
         <v>174</v>
@@ -6806,11 +6942,11 @@
       </c>
       <c r="F9" s="73">
         <f ca="1">F8</f>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="G9" s="73">
         <f ca="1">G8</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="H9" s="71">
         <v>100</v>
@@ -6859,7 +6995,7 @@
         <v>0.11407976820886745</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="14.4">
+    <row r="10" spans="1:22" ht="13.5">
       <c r="A10" s="61"/>
       <c r="B10" s="78" t="s">
         <v>175</v>
@@ -6874,11 +7010,11 @@
       </c>
       <c r="F10" s="81">
         <f ca="1">F9</f>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="G10" s="81">
         <f ca="1">G9</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="H10" s="79" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -6930,7 +7066,7 @@
         <v>1.4532514246212713E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.4">
+    <row r="11" spans="1:22" ht="13.5">
       <c r="A11" s="84"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -6954,7 +7090,7 @@
       <c r="U11" s="70"/>
       <c r="V11" s="70"/>
     </row>
-    <row r="12" spans="1:22" ht="14.4">
+    <row r="12" spans="1:22" ht="13.5">
       <c r="A12" s="84"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -6978,7 +7114,7 @@
       <c r="U12" s="70"/>
       <c r="V12" s="70"/>
     </row>
-    <row r="13" spans="1:22" ht="14.4">
+    <row r="13" spans="1:22" ht="13.5">
       <c r="A13" s="84"/>
       <c r="B13" s="78"/>
       <c r="C13" s="79"/>
@@ -7002,7 +7138,7 @@
       <c r="U13" s="83"/>
       <c r="V13" s="83"/>
     </row>
-    <row r="14" spans="1:22" ht="14.4">
+    <row r="14" spans="1:22" ht="13.5">
       <c r="A14" s="84"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -7026,7 +7162,7 @@
       <c r="U14" s="70"/>
       <c r="V14" s="70"/>
     </row>
-    <row r="15" spans="1:22" ht="14.4">
+    <row r="15" spans="1:22" ht="13.5">
       <c r="A15" s="84"/>
       <c r="B15" s="70"/>
       <c r="C15" s="71"/>
@@ -7050,7 +7186,7 @@
       <c r="U15" s="70"/>
       <c r="V15" s="70"/>
     </row>
-    <row r="16" spans="1:22" ht="14.4">
+    <row r="16" spans="1:22" ht="13.5">
       <c r="A16" s="84"/>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -7074,7 +7210,7 @@
       <c r="U16" s="83"/>
       <c r="V16" s="83"/>
     </row>
-    <row r="17" spans="1:22" ht="14.4">
+    <row r="17" spans="1:22" ht="13.5">
       <c r="A17" s="84"/>
       <c r="B17" s="70"/>
       <c r="C17" s="71"/>
@@ -7098,7 +7234,7 @@
       <c r="U17" s="70"/>
       <c r="V17" s="70"/>
     </row>
-    <row r="18" spans="1:22" ht="14.4">
+    <row r="18" spans="1:22" ht="13.5">
       <c r="A18" s="84"/>
       <c r="B18" s="70"/>
       <c r="C18" s="71"/>
@@ -7122,7 +7258,7 @@
       <c r="U18" s="70"/>
       <c r="V18" s="70"/>
     </row>
-    <row r="19" spans="1:22" ht="15" thickBot="1">
+    <row r="19" spans="1:22" ht="14.25" thickBot="1">
       <c r="A19" s="84"/>
       <c r="B19" s="126"/>
       <c r="C19" s="127"/>
@@ -7146,7 +7282,7 @@
       <c r="U19" s="132"/>
       <c r="V19" s="132"/>
     </row>
-    <row r="20" spans="1:22" s="144" customFormat="1" ht="14.4">
+    <row r="20" spans="1:22" s="144" customFormat="1" ht="13.5">
       <c r="A20" s="134"/>
       <c r="B20" s="135"/>
       <c r="C20" s="136"/>
@@ -7170,7 +7306,7 @@
       <c r="U20" s="135"/>
       <c r="V20" s="135"/>
     </row>
-    <row r="21" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="21" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A21" s="145"/>
       <c r="B21" s="70"/>
       <c r="C21" s="71"/>
@@ -7194,7 +7330,7 @@
       <c r="U21" s="70"/>
       <c r="V21" s="70"/>
     </row>
-    <row r="22" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="22" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A22" s="145"/>
       <c r="B22" s="78"/>
       <c r="C22" s="79"/>
@@ -7218,7 +7354,7 @@
       <c r="U22" s="83"/>
       <c r="V22" s="83"/>
     </row>
-    <row r="23" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="23" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A23" s="145"/>
       <c r="B23" s="70"/>
       <c r="C23" s="71"/>
@@ -7242,7 +7378,7 @@
       <c r="U23" s="70"/>
       <c r="V23" s="70"/>
     </row>
-    <row r="24" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="24" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A24" s="145"/>
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
@@ -7266,7 +7402,7 @@
       <c r="U24" s="70"/>
       <c r="V24" s="70"/>
     </row>
-    <row r="25" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="25" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A25" s="145"/>
       <c r="B25" s="78"/>
       <c r="C25" s="79"/>
@@ -7290,7 +7426,7 @@
       <c r="U25" s="83"/>
       <c r="V25" s="83"/>
     </row>
-    <row r="26" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="26" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A26" s="145"/>
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
@@ -7314,7 +7450,7 @@
       <c r="U26" s="70"/>
       <c r="V26" s="70"/>
     </row>
-    <row r="27" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="27" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A27" s="145"/>
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
@@ -7338,7 +7474,7 @@
       <c r="U27" s="70"/>
       <c r="V27" s="70"/>
     </row>
-    <row r="28" spans="1:22" s="133" customFormat="1" ht="15" thickBot="1">
+    <row r="28" spans="1:22" s="133" customFormat="1" ht="14.25" thickBot="1">
       <c r="A28" s="145"/>
       <c r="B28" s="126"/>
       <c r="C28" s="127"/>
@@ -7362,7 +7498,7 @@
       <c r="U28" s="132"/>
       <c r="V28" s="132"/>
     </row>
-    <row r="29" spans="1:22" s="156" customFormat="1" ht="14.4">
+    <row r="29" spans="1:22" s="156" customFormat="1" ht="13.5">
       <c r="A29" s="146"/>
       <c r="B29" s="147"/>
       <c r="C29" s="148"/>
@@ -7386,7 +7522,7 @@
       <c r="U29" s="147"/>
       <c r="V29" s="147"/>
     </row>
-    <row r="30" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="30" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A30" s="157"/>
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
@@ -7410,7 +7546,7 @@
       <c r="U30" s="70"/>
       <c r="V30" s="70"/>
     </row>
-    <row r="31" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="31" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A31" s="157"/>
       <c r="B31" s="78"/>
       <c r="C31" s="79"/>
@@ -7434,7 +7570,7 @@
       <c r="U31" s="83"/>
       <c r="V31" s="83"/>
     </row>
-    <row r="32" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="32" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A32" s="157"/>
       <c r="B32" s="70"/>
       <c r="C32" s="71"/>
@@ -7458,7 +7594,7 @@
       <c r="U32" s="70"/>
       <c r="V32" s="70"/>
     </row>
-    <row r="33" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="33" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A33" s="157"/>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
@@ -7482,7 +7618,7 @@
       <c r="U33" s="70"/>
       <c r="V33" s="70"/>
     </row>
-    <row r="34" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="34" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A34" s="157"/>
       <c r="B34" s="78"/>
       <c r="C34" s="79"/>
@@ -7506,7 +7642,7 @@
       <c r="U34" s="83"/>
       <c r="V34" s="83"/>
     </row>
-    <row r="35" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="35" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A35" s="157"/>
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
@@ -7530,7 +7666,7 @@
       <c r="U35" s="70"/>
       <c r="V35" s="70"/>
     </row>
-    <row r="36" spans="1:22" s="133" customFormat="1" ht="14.4">
+    <row r="36" spans="1:22" s="133" customFormat="1" ht="13.5">
       <c r="A36" s="157"/>
       <c r="B36" s="70"/>
       <c r="C36" s="71"/>
@@ -7554,7 +7690,7 @@
       <c r="U36" s="70"/>
       <c r="V36" s="70"/>
     </row>
-    <row r="37" spans="1:22" s="166" customFormat="1" ht="15" thickBot="1">
+    <row r="37" spans="1:22" s="166" customFormat="1" ht="14.25" thickBot="1">
       <c r="A37" s="158"/>
       <c r="B37" s="159"/>
       <c r="C37" s="160"/>
@@ -7672,34 +7808,34 @@
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
     <col min="5" max="10" width="9" style="6"/>
     <col min="11" max="11" width="8" style="6" customWidth="1"/>
     <col min="12" max="14" width="9" style="6"/>
-    <col min="15" max="15" width="8.109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="6" customWidth="1"/>
     <col min="17" max="17" width="9" style="6"/>
-    <col min="18" max="18" width="7.21875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.25" style="6" customWidth="1"/>
     <col min="19" max="19" width="9" style="6"/>
-    <col min="20" max="20" width="10.109375" style="6" customWidth="1"/>
-    <col min="21" max="22" width="6.44140625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.125" style="6" customWidth="1"/>
+    <col min="21" max="22" width="6.5" style="6" customWidth="1"/>
     <col min="23" max="24" width="9" style="6"/>
-    <col min="25" max="25" width="13.77734375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
     <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="181"/>
-    </row>
-    <row r="2" spans="1:25" ht="12.6" thickTop="1">
+      <c r="C1" s="184"/>
+    </row>
+    <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7715,7 +7851,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.6" thickBot="1">
+    <row r="4" spans="1:25" ht="12" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -7723,8 +7859,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="12.6" thickTop="1"/>
-    <row r="6" spans="1:25" ht="12.6" thickBot="1">
+    <row r="5" spans="1:25" ht="12" thickTop="1"/>
+    <row r="6" spans="1:25" ht="12" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -7750,7 +7886,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="13.2" thickTop="1" thickBot="1">
+    <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -7822,7 +7958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="12.6" thickTop="1">
+    <row r="8" spans="1:25" ht="12" thickTop="1">
       <c r="A8" s="53"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -7845,7 +7981,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3836</v>
+        <v>3859</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -7862,11 +7998,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -7883,30 +8019,30 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-60.331637993028956</v>
+        <v>-64.856577619083552</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.5223013698630137</v>
+        <v>2.5374246575342467</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>62.853939362891971</v>
+        <v>67.394002276617798</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>1.6385281377187689E-2</v>
+        <v>1.7464110462974292E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.17867954451560308</v>
+        <v>0.18241731668808825</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.46556889761332698</v>
+        <v>0.35393901841226239</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -7948,11 +8084,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43297</v>
+        <v>43298</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -8823,12 +8959,12 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="85">
         <v>43087</v>
       </c>
@@ -8842,7 +8978,7 @@
       </c>
       <c r="F1" s="88"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="89" t="s">
         <v>51</v>
       </c>
@@ -8862,7 +8998,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="93" t="s">
         <v>57</v>
       </c>
@@ -8882,7 +9018,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="89" t="s">
         <v>59</v>
       </c>
@@ -8902,7 +9038,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="93" t="s">
         <v>61</v>
       </c>
@@ -8914,7 +9050,7 @@
       <c r="E5" s="96"/>
       <c r="F5" s="100"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="89" t="s">
         <v>63</v>
       </c>
@@ -8934,7 +9070,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="93" t="s">
         <v>65</v>
       </c>
@@ -8954,7 +9090,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="89" t="s">
         <v>67</v>
       </c>
@@ -8974,7 +9110,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="93" t="s">
         <v>69</v>
       </c>
@@ -8994,7 +9130,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="89" t="s">
         <v>71</v>
       </c>
@@ -9014,7 +9150,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="93" t="s">
         <v>73</v>
       </c>
@@ -9034,7 +9170,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="89" t="s">
         <v>75</v>
       </c>
@@ -9054,7 +9190,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="A13" s="93" t="s">
         <v>77</v>
       </c>
@@ -9074,7 +9210,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="89" t="s">
         <v>79</v>
       </c>
@@ -9094,7 +9230,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.4" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="93" t="s">
         <v>81</v>
       </c>
@@ -9106,7 +9242,7 @@
       <c r="E15" s="96"/>
       <c r="F15" s="100"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="89" t="s">
         <v>83</v>
       </c>
@@ -9126,7 +9262,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="93" t="s">
         <v>85</v>
       </c>
@@ -9146,7 +9282,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="89" t="s">
         <v>87</v>
       </c>
@@ -9158,7 +9294,7 @@
       <c r="E18" s="105"/>
       <c r="F18" s="106"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="93" t="s">
         <v>89</v>
       </c>
@@ -9170,7 +9306,7 @@
       <c r="E19" s="96"/>
       <c r="F19" s="100"/>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="89" t="s">
         <v>91</v>
       </c>
@@ -9190,7 +9326,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="A21" s="93" t="s">
         <v>93</v>
       </c>
@@ -9202,7 +9338,7 @@
       <c r="E21" s="96"/>
       <c r="F21" s="100"/>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="A22" s="89" t="s">
         <v>95</v>
       </c>
@@ -9222,7 +9358,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="93" t="s">
         <v>97</v>
       </c>
@@ -9242,7 +9378,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="89" t="s">
         <v>39</v>
       </c>
@@ -9262,7 +9398,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="93" t="s">
         <v>100</v>
       </c>
@@ -9282,7 +9418,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" s="89" t="s">
         <v>102</v>
       </c>
@@ -9302,7 +9438,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="93" t="s">
         <v>104</v>
       </c>
@@ -9314,7 +9450,7 @@
       <c r="E27" s="107"/>
       <c r="F27" s="108"/>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="89" t="s">
         <v>106</v>
       </c>
@@ -9326,7 +9462,7 @@
       <c r="E28" s="109"/>
       <c r="F28" s="110"/>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
       <c r="A29" s="93" t="s">
         <v>108</v>
       </c>
@@ -9346,7 +9482,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
       <c r="A30" s="89" t="s">
         <v>110</v>
       </c>
@@ -9366,7 +9502,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
       <c r="A31" s="93" t="s">
         <v>112</v>
       </c>
@@ -9378,7 +9514,7 @@
       <c r="E31" s="96"/>
       <c r="F31" s="100"/>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="89" t="s">
         <v>114</v>
       </c>
@@ -9398,7 +9534,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" s="93" t="s">
         <v>116</v>
       </c>
@@ -9433,7 +9569,7 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -9625,21 +9761,21 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="9.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" customWidth="1"/>
     <col min="5" max="11" width="9" style="6"/>
-    <col min="12" max="12" width="8.109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.125" style="6" customWidth="1"/>
     <col min="13" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="7.21875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="6" customWidth="1"/>
     <col min="15" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="10.109375" style="6" customWidth="1"/>
-    <col min="17" max="18" width="6.44140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="6.5" style="6" customWidth="1"/>
     <col min="19" max="20" width="9" style="6"/>
-    <col min="21" max="21" width="13.77734375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="13.75" style="6" customWidth="1"/>
     <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -9649,7 +9785,7 @@
       </c>
       <c r="C1" s="188"/>
     </row>
-    <row r="2" spans="1:21" ht="12.6" thickTop="1">
+    <row r="2" spans="1:21" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -9665,7 +9801,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.6" thickBot="1">
+    <row r="4" spans="1:21" ht="12" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -9673,8 +9809,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.6" thickTop="1"/>
-    <row r="6" spans="1:21" ht="12.6" thickBot="1">
+    <row r="5" spans="1:21" ht="12" thickTop="1"/>
+    <row r="6" spans="1:21" ht="12" thickBot="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -9696,7 +9832,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" ht="13.2" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="12.75" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
@@ -9756,7 +9892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.6" thickTop="1">
+    <row r="8" spans="1:21" ht="12" thickTop="1">
       <c r="A8" s="27"/>
       <c r="B8" s="24" t="s">
         <v>171</v>
@@ -9779,18 +9915,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3836</v>
+        <v>3859</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -9804,30 +9940,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>151.27391081816245</v>
+        <v>164.55841905557463</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.5223013698630137</v>
+        <v>2.5374246575342467</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>153.79621218802546</v>
+        <v>167.09584371310888</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>4.0092860320131769E-2</v>
+        <v>4.3300296375514094E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.56395866765797109</v>
+        <v>0.59112691922109661</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.3264337695532049</v>
+        <v>4.2931522778567341</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -9859,11 +9995,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -9929,11 +10065,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43147</v>
+        <v>43148</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
